--- a/Excel Output/Section_1.xlsx
+++ b/Excel Output/Section_1.xlsx
@@ -496,58 +496,58 @@
         <v>1e-08</v>
       </c>
       <c r="B2">
-        <v>19.14371028438445</v>
+        <v>16.82497721218401</v>
       </c>
       <c r="C2">
-        <v>32.29353048521206</v>
+        <v>28.45306221837776</v>
       </c>
       <c r="D2">
-        <v>14994348991619.75</v>
+        <v>14260474774119.6</v>
       </c>
       <c r="E2">
-        <v>8.280479287132091e-08</v>
+        <v>7.087684130333826e-08</v>
       </c>
       <c r="F2">
-        <v>0.0002713020590843198</v>
+        <v>0.0002580236175575845</v>
       </c>
       <c r="G2">
-        <v>312.7247395955939</v>
+        <v>304.6232073171274</v>
       </c>
       <c r="H2">
-        <v>0.9884080849930622</v>
+        <v>0.9887896611503364</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
       </c>
       <c r="J2">
-        <v>1.728221986055339e-07</v>
+        <v>1.643636949493113e-07</v>
       </c>
       <c r="K2">
-        <v>8.988989529375671e-07</v>
+        <v>9.498931045446961e-07</v>
       </c>
       <c r="L2">
-        <v>0.9999991907214223</v>
+        <v>0.9999991448119827</v>
       </c>
       <c r="M2">
-        <v>1.000000039726097</v>
+        <v>1.000000041979741</v>
       </c>
       <c r="N2">
-        <v>8.53425130254512e-06</v>
+        <v>7.304900528563438e-06</v>
       </c>
       <c r="O2">
-        <v>4.030322036693753e-06</v>
+        <v>3.878162670241887e-06</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.5617127344509417</v>
+        <v>0.561042332172635</v>
       </c>
       <c r="R2">
-        <v>0.882690376090834</v>
+        <v>0.9260485244735909</v>
       </c>
       <c r="S2">
-        <v>0.9999999870186044</v>
+        <v>0.9999999908402316</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0.8724575868862142</v>
+        <v>0.9156664152680956</v>
       </c>
       <c r="X2">
-        <v>-2.851739266797014e-05</v>
+        <v>-2.463516933193566e-05</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -570,58 +570,58 @@
         <v>1.193776641714436e-08</v>
       </c>
       <c r="B3">
-        <v>16.03625805317425</v>
+        <v>14.09390720530509</v>
       </c>
       <c r="C3">
-        <v>27.14683118431692</v>
+        <v>23.9303366529715</v>
       </c>
       <c r="D3">
-        <v>10558644146829.01</v>
+        <v>10046868144314.35</v>
       </c>
       <c r="E3">
-        <v>5.830905643644854e-08</v>
+        <v>4.993454217614539e-08</v>
       </c>
       <c r="F3">
-        <v>0.0001910440993319756</v>
+        <v>0.0001817842186029242</v>
       </c>
       <c r="G3">
-        <v>444.1009488152871</v>
+        <v>432.3806683992032</v>
       </c>
       <c r="H3">
-        <v>0.9908295117612107</v>
+        <v>0.9911294865199533</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
       </c>
       <c r="J3">
-        <v>1.881528640822294e-07</v>
+        <v>1.790331211206668e-07</v>
       </c>
       <c r="K3">
-        <v>9.786382413856452e-07</v>
+        <v>1.034670869927102e-06</v>
       </c>
       <c r="L3">
-        <v>0.9999991189330946</v>
+        <v>0.9999990684876647</v>
       </c>
       <c r="M3">
-        <v>1.000000043250109</v>
+        <v>1.000000045726424</v>
       </c>
       <c r="N3">
-        <v>9.291305389746063e-06</v>
+        <v>7.956861407308007e-06</v>
       </c>
       <c r="O3">
-        <v>4.03032210661473e-06</v>
+        <v>3.878162721782123e-06</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5607770499480597</v>
+        <v>0.5599938262080263</v>
       </c>
       <c r="R3">
-        <v>0.8828740715319079</v>
+        <v>0.9261784439722154</v>
       </c>
       <c r="S3">
-        <v>0.9999999842938868</v>
+        <v>0.9999999889052584</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0.8747769007655792</v>
+        <v>0.9179619003218414</v>
       </c>
       <c r="X3">
-        <v>-0.002665954684122647</v>
+        <v>-0.002299832529142981</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -644,58 +644,58 @@
         <v>1.425102670302998e-08</v>
       </c>
       <c r="B4">
-        <v>13.43321480150915</v>
+        <v>11.80615092708146</v>
       </c>
       <c r="C4">
-        <v>22.83637014708915</v>
+        <v>20.14266782716223</v>
       </c>
       <c r="D4">
-        <v>7440343871578.398</v>
+        <v>7083955235801.319</v>
       </c>
       <c r="E4">
-        <v>4.108855499640454e-08</v>
+        <v>3.520839095477028e-08</v>
       </c>
       <c r="F4">
-        <v>0.000134622757799141</v>
+        <v>0.0001281743971017467</v>
       </c>
       <c r="G4">
-        <v>630.2267697225388</v>
+        <v>613.226851237423</v>
       </c>
       <c r="H4">
-        <v>0.992747020792715</v>
+        <v>0.992982044910515</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
       </c>
       <c r="J4">
-        <v>2.049870650543035e-07</v>
+        <v>1.951682903138354e-07</v>
       </c>
       <c r="K4">
-        <v>1.066197859012529e-06</v>
+        <v>1.127919479128663e-06</v>
       </c>
       <c r="L4">
-        <v>0.9999990401043629</v>
+        <v>0.9999989845373176</v>
       </c>
       <c r="M4">
-        <v>1.000000047119733</v>
+        <v>1.000000049847469</v>
       </c>
       <c r="N4">
-        <v>1.012260659255711e-05</v>
+        <v>8.673965059692961e-06</v>
       </c>
       <c r="O4">
-        <v>4.030322190234495e-06</v>
+        <v>3.87816278355758e-06</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.559685548558446</v>
+        <v>0.5587742654574864</v>
       </c>
       <c r="R4">
-        <v>0.8830883804963164</v>
+        <v>0.926329577090754</v>
       </c>
       <c r="S4">
-        <v>0.999999980967421</v>
+        <v>0.9999999865373355</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0.8766825006243212</v>
+        <v>0.919827691285682</v>
       </c>
       <c r="X4">
-        <v>-0.1034891132611136</v>
+        <v>-0.08918626688774285</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -718,58 +718,58 @@
         <v>1.701254279852589e-08</v>
       </c>
       <c r="B5">
-        <v>11.25270367345863</v>
+        <v>9.889748646887677</v>
       </c>
       <c r="C5">
-        <v>19.22655195984609</v>
+        <v>16.97090073883771</v>
       </c>
       <c r="D5">
-        <v>5247401114399.283</v>
+        <v>4999661869907.916</v>
       </c>
       <c r="E5">
-        <v>2.89782479141586e-08</v>
+        <v>2.484911943934153e-08</v>
       </c>
       <c r="F5">
-        <v>9.494448395015604e-05</v>
+        <v>9.046198409744046e-05</v>
       </c>
       <c r="G5">
-        <v>893.6050020918873</v>
+        <v>868.8730711377706</v>
       </c>
       <c r="H5">
-        <v>0.9942632731147082</v>
+        <v>0.9944467864173493</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
       </c>
       <c r="J5">
-        <v>2.235159305969474e-07</v>
+        <v>2.129633415017622e-07</v>
       </c>
       <c r="K5">
-        <v>1.162571924206664e-06</v>
+        <v>1.230760902982297e-06</v>
       </c>
       <c r="L5">
-        <v>0.9999989533402747</v>
+        <v>0.9999988919508913</v>
       </c>
       <c r="M5">
-        <v>1.000000051378906</v>
+        <v>1.000000054392461</v>
       </c>
       <c r="N5">
-        <v>1.103759318668627e-05</v>
+        <v>9.464839704294909e-06</v>
       </c>
       <c r="O5">
-        <v>4.030322290550902e-06</v>
+        <v>3.878162857865743e-06</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.5584179135186971</v>
+        <v>0.557362778762996</v>
       </c>
       <c r="R5">
-        <v>0.8833373035980812</v>
+        <v>0.9265045191959397</v>
       </c>
       <c r="S5">
-        <v>0.9999999768927871</v>
+        <v>0.999999983628642</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0.8782688991957338</v>
+        <v>0.9213584057201567</v>
       </c>
       <c r="X5">
-        <v>-2.13466652484696</v>
+        <v>-1.838495197290968</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -792,58 +792,58 @@
         <v>2.030917620904735e-08</v>
       </c>
       <c r="B6">
-        <v>9.426138257570628</v>
+        <v>8.284421307393451</v>
       </c>
       <c r="C6">
-        <v>16.20381418950014</v>
+        <v>14.31524647114532</v>
       </c>
       <c r="D6">
-        <v>3704563425891.075</v>
+        <v>3532738516323.901</v>
       </c>
       <c r="E6">
-        <v>2.045808106314087e-08</v>
+        <v>1.75582756642924e-08</v>
       </c>
       <c r="F6">
-        <v>6.702896444616769e-05</v>
+        <v>6.392002975393097e-05</v>
       </c>
       <c r="G6">
-        <v>1265.764233117929</v>
+        <v>1229.66122272691</v>
       </c>
       <c r="H6">
-        <v>0.9954609811617191</v>
+        <v>0.9956037614268504</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
       </c>
       <c r="J6">
-        <v>2.439675263111017e-07</v>
+        <v>2.32651834466617e-07</v>
       </c>
       <c r="K6">
-        <v>1.268946673062377e-06</v>
+        <v>1.344544933646489e-06</v>
       </c>
       <c r="L6">
-        <v>0.9999988575729263</v>
+        <v>0.9999987895132438</v>
       </c>
       <c r="M6">
-        <v>1.00000005608005</v>
+        <v>1.000000059421053</v>
       </c>
       <c r="N6">
-        <v>1.204752743570617e-05</v>
+        <v>1.033986555906131e-05</v>
       </c>
       <c r="O6">
-        <v>4.030322411349731e-06</v>
+        <v>3.878162947631245e-06</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.5569534627813896</v>
+        <v>0.5557387786071424</v>
       </c>
       <c r="R6">
-        <v>0.8836249172440213</v>
+        <v>0.926705833480828</v>
       </c>
       <c r="S6">
-        <v>0.9999999718818869</v>
+        <v>0.9999999800394497</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="W6">
-        <v>0.8796130974706218</v>
+        <v>0.9226306782999093</v>
       </c>
       <c r="X6">
-        <v>-24.66928748627893</v>
+        <v>-21.24208094438863</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -866,58 +866,58 @@
         <v>2.424462017082328e-08</v>
       </c>
       <c r="B7">
-        <v>7.896065250559206</v>
+        <v>6.939674490108821</v>
       </c>
       <c r="C7">
-        <v>13.67305331525635</v>
+        <v>12.09214083653659</v>
       </c>
       <c r="D7">
-        <v>2618558077341.056</v>
+        <v>2499728163741.681</v>
       </c>
       <c r="E7">
-        <v>1.446072512630824e-08</v>
+        <v>1.242404893030235e-08</v>
       </c>
       <c r="F7">
-        <v>4.737919589650444e-05</v>
+        <v>4.522913254541529e-05</v>
       </c>
       <c r="G7">
-        <v>1790.719833325662</v>
+        <v>1737.817586155024</v>
       </c>
       <c r="H7">
-        <v>0.9964063976675869</v>
+        <v>0.9965170428120906</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
       </c>
       <c r="J7">
-        <v>2.666170800749206e-07</v>
+        <v>2.545180226342733e-07</v>
       </c>
       <c r="K7">
-        <v>1.386753646512997e-06</v>
+        <v>1.470914332737566e-06</v>
       </c>
       <c r="L7">
-        <v>0.9999987515135833</v>
+        <v>0.9999986757454932</v>
       </c>
       <c r="M7">
-        <v>1.000000061286432</v>
+        <v>1.000000065005844</v>
       </c>
       <c r="N7">
-        <v>1.316600055588755e-05</v>
+        <v>1.131167584571154e-05</v>
       </c>
       <c r="O7">
-        <v>4.030322557465352e-06</v>
+        <v>3.878163056622215e-06</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.5552722025206613</v>
+        <v>0.5538833052377105</v>
       </c>
       <c r="R7">
-        <v>0.883955167578268</v>
+        <v>0.9269358848575884</v>
       </c>
       <c r="S7">
-        <v>0.9999999656902377</v>
+        <v>0.9999999755866223</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -929,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0.8807774543669454</v>
+        <v>0.9237061610802081</v>
       </c>
       <c r="X7">
-        <v>-151.3906206740757</v>
+        <v>-130.3889058891068</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -940,58 +940,58 @@
         <v>2.89426612471675e-08</v>
       </c>
       <c r="B8">
-        <v>6.614357304913682</v>
+        <v>5.813210149716484</v>
       </c>
       <c r="C8">
-        <v>11.5546305241344</v>
+        <v>10.23161243996667</v>
       </c>
       <c r="D8">
-        <v>1853658339129.263</v>
+        <v>1771783247015.029</v>
       </c>
       <c r="E8">
-        <v>1.023664281200744e-08</v>
+        <v>8.806046222984214e-09</v>
       </c>
       <c r="F8">
-        <v>3.353939037471103e-05</v>
+        <v>3.205797353622575e-05</v>
       </c>
       <c r="G8">
-        <v>2529.648417308877</v>
+        <v>2451.807562169851</v>
       </c>
       <c r="H8">
-        <v>0.9971523463436223</v>
+        <v>0.9972376870229328</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
       </c>
       <c r="J8">
-        <v>2.918006236396353e-07</v>
+        <v>2.789119469967169e-07</v>
       </c>
       <c r="K8">
-        <v>1.517740644272756e-06</v>
+        <v>1.611892062350033e-06</v>
       </c>
       <c r="L8">
-        <v>0.999998633588806</v>
+        <v>0.999998548826491</v>
       </c>
       <c r="M8">
-        <v>1.000000067075294</v>
+        <v>1.000000071236238</v>
       </c>
       <c r="N8">
-        <v>1.44096063611836e-05</v>
+        <v>1.239582761672098e-05</v>
       </c>
       <c r="O8">
-        <v>4.030322735148114e-06</v>
+        <v>3.878163189758399e-06</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.5533563292675019</v>
+        <v>0.5517808612458522</v>
       </c>
       <c r="R8">
-        <v>0.8843315761521711</v>
+        <v>0.9271966128505492</v>
       </c>
       <c r="S8">
-        <v>0.9999999579962345</v>
+        <v>0.9999999700267712</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0.88181206414689</v>
+        <v>0.9246340360939049</v>
       </c>
       <c r="X8">
-        <v>-384.3692374068877</v>
+        <v>-331.1248931361196</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1014,58 +1014,58 @@
         <v>3.455107294592218e-08</v>
       </c>
       <c r="B9">
-        <v>5.540699217748561</v>
+        <v>4.869596159435547</v>
       </c>
       <c r="C9">
-        <v>9.781862949132295</v>
+        <v>8.675077094888652</v>
       </c>
       <c r="D9">
-        <v>1314534907457.494</v>
+        <v>1258394396502.524</v>
       </c>
       <c r="E9">
-        <v>7.259387572943266e-09</v>
+        <v>6.254421493720984e-09</v>
       </c>
       <c r="F9">
-        <v>2.378469564305564e-05</v>
+        <v>2.276891054770793e-05</v>
       </c>
       <c r="G9">
-        <v>3567.120094877637</v>
+        <v>3452.074783256226</v>
       </c>
       <c r="H9">
-        <v>0.9977407926117332</v>
+        <v>0.9978062381620922</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
       </c>
       <c r="J9">
-        <v>3.199332803462298e-07</v>
+        <v>3.062697270025786e-07</v>
       </c>
       <c r="K9">
-        <v>1.66406684461598e-06</v>
+        <v>1.7699985504722e-06</v>
       </c>
       <c r="L9">
-        <v>0.9999985018548215</v>
+        <v>0.9999984064872582</v>
       </c>
       <c r="M9">
-        <v>1.000000073542059</v>
+        <v>1.000000078223624</v>
       </c>
       <c r="N9">
-        <v>1.579884434148679e-05</v>
+        <v>1.361170355384184e-05</v>
       </c>
       <c r="O9">
-        <v>4.030322952589684e-06</v>
+        <v>3.878163353556398e-06</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.5511922464616776</v>
+        <v>0.5494217666575311</v>
       </c>
       <c r="R9">
-        <v>0.8847568441330005</v>
+        <v>0.9274892395472877</v>
       </c>
       <c r="S9">
-        <v>0.9999999483708715</v>
+        <v>0.9999999630316885</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0.882756626858324</v>
+        <v>0.9254530401124453</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1085,58 +1085,58 @@
         <v>4.12462638290135e-08</v>
       </c>
       <c r="B10">
-        <v>4.641319845051846</v>
+        <v>4.079151818921587</v>
       </c>
       <c r="C10">
-        <v>8.298921143030981</v>
+        <v>7.37348888248366</v>
       </c>
       <c r="D10">
-        <v>934219892407.9812</v>
+        <v>895969829305.6914</v>
       </c>
       <c r="E10">
-        <v>5.159135933833835e-09</v>
+        <v>4.453113406821974e-09</v>
       </c>
       <c r="F10">
-        <v>1.690342012110508e-05</v>
+        <v>1.621133799832961e-05</v>
       </c>
       <c r="G10">
-        <v>5019.272145579591</v>
+        <v>4848.457416165035</v>
       </c>
       <c r="H10">
-        <v>0.9982049843043482</v>
+        <v>0.9982548082944087</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
       </c>
       <c r="J10">
-        <v>3.515338701000173e-07</v>
+        <v>3.37140906705436e-07</v>
       </c>
       <c r="K10">
-        <v>1.828430782067819e-06</v>
+        <v>1.948409730252186e-06</v>
       </c>
       <c r="L10">
-        <v>0.9999983538823162</v>
+        <v>0.9999982458687178</v>
       </c>
       <c r="M10">
-        <v>1.000000080805988</v>
+        <v>1.000000086108358</v>
       </c>
       <c r="N10">
-        <v>1.735933469772288e-05</v>
+        <v>1.498372732708645e-05</v>
       </c>
       <c r="O10">
-        <v>4.030323220685008e-06</v>
+        <v>3.878163556782029e-06</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.5487731101046436</v>
+        <v>0.5468049784848901</v>
       </c>
       <c r="R10">
-        <v>0.8852323517876519</v>
+        <v>0.9278139192761128</v>
       </c>
       <c r="S10">
-        <v>0.9999999362331121</v>
+        <v>0.9999999541515802</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0.8836418348938633</v>
+        <v>0.9261930389882633</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1156,58 +1156,58 @@
         <v>4.923882631706737e-08</v>
       </c>
       <c r="B11">
-        <v>3.88792985460516</v>
+        <v>3.417014269154515</v>
       </c>
       <c r="C11">
-        <v>7.059066306784097</v>
+        <v>6.285789321315229</v>
       </c>
       <c r="D11">
-        <v>665658768174.9713</v>
+        <v>639818951377.286</v>
       </c>
       <c r="E11">
-        <v>3.676033981369461e-09</v>
+        <v>3.180002559377332e-09</v>
       </c>
       <c r="F11">
-        <v>1.204417707993424e-05</v>
+        <v>1.157664124310053e-05</v>
       </c>
       <c r="G11">
-        <v>7044.305743415357</v>
+        <v>6789.532498539113</v>
       </c>
       <c r="H11">
-        <v>0.9985712090052536</v>
+        <v>0.9986087821407135</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
       </c>
       <c r="J11">
-        <v>3.872580828456703e-07</v>
+        <v>3.722253387542943e-07</v>
       </c>
       <c r="K11">
-        <v>2.014242892379428e-06</v>
+        <v>2.151170200502962e-06</v>
       </c>
       <c r="L11">
-        <v>0.9999981866011107</v>
+        <v>0.9999980633298073</v>
       </c>
       <c r="M11">
-        <v>1.0000000890178</v>
+        <v>1.00000009506919</v>
       </c>
       <c r="N11">
-        <v>1.912345650393178e-05</v>
+        <v>1.654300284895331e-05</v>
       </c>
       <c r="O11">
-        <v>4.03032355415296e-06</v>
+        <v>3.878163811419312e-06</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.5461018170571347</v>
+        <v>0.5439411685798831</v>
       </c>
       <c r="R11">
-        <v>0.8857575697528501</v>
+        <v>0.9281693552665116</v>
       </c>
       <c r="S11">
-        <v>0.9999999207831746</v>
+        <v>0.9999999427595336</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0.8844903333103133</v>
+        <v>0.9268762213710627</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1227,58 +1227,58 @@
         <v>5.878016072274909e-08</v>
       </c>
       <c r="B12">
-        <v>3.256831905356708</v>
+        <v>2.862356449065034</v>
       </c>
       <c r="C12">
-        <v>6.023171443553248</v>
+        <v>5.377605483959768</v>
       </c>
       <c r="D12">
-        <v>475780396451.2086</v>
+        <v>458525127142.4173</v>
       </c>
       <c r="E12">
-        <v>2.627449661362154e-09</v>
+        <v>2.278943245918157e-09</v>
       </c>
       <c r="F12">
-        <v>8.608589896187491e-06</v>
+        <v>8.296379603086674e-06</v>
       </c>
       <c r="G12">
-        <v>9855.605482666437</v>
+        <v>9474.009833725071</v>
       </c>
       <c r="H12">
-        <v>0.9988602209061206</v>
+        <v>0.998888199281176</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
       </c>
       <c r="J12">
-        <v>4.27943217124085e-07</v>
+        <v>4.124228730421828e-07</v>
       </c>
       <c r="K12">
-        <v>2.225858210886435e-06</v>
+        <v>2.383480387077557e-06</v>
       </c>
       <c r="L12">
-        <v>0.9999979960906862</v>
+        <v>0.9999978541889802</v>
       </c>
       <c r="M12">
-        <v>1.000000098369965</v>
+        <v>1.000000105335947</v>
       </c>
       <c r="N12">
-        <v>2.113255697257184e-05</v>
+        <v>1.832952261268276e-05</v>
       </c>
       <c r="O12">
-        <v>4.03032397320687e-06</v>
+        <v>3.87816413412857e-06</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>0.5431941792824132</v>
+        <v>0.5408556234995993</v>
       </c>
       <c r="R12">
-        <v>0.8863294320479861</v>
+        <v>0.928552437167051</v>
       </c>
       <c r="S12">
-        <v>0.9999999009009438</v>
+        <v>0.9999999279659351</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0.88531735045751</v>
+        <v>0.927518014804254</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1298,58 +1298,58 @@
         <v>7.017038286703823e-08</v>
       </c>
       <c r="B13">
-        <v>2.728175264578326</v>
+        <v>2.397731995287053</v>
       </c>
       <c r="C13">
-        <v>5.158479546989668</v>
+        <v>4.620155787617804</v>
       </c>
       <c r="D13">
-        <v>341334318009.801</v>
+        <v>329995292733.4424</v>
       </c>
       <c r="E13">
-        <v>1.884984637777325e-09</v>
+        <v>1.640129404132046e-09</v>
       </c>
       <c r="F13">
-        <v>6.175973586046132e-06</v>
+        <v>5.970809566774302e-06</v>
       </c>
       <c r="G13">
-        <v>13737.56940453641</v>
+        <v>13164.04100062807</v>
       </c>
       <c r="H13">
-        <v>0.9990883895884372</v>
+        <v>0.9991088658038388</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
       </c>
       <c r="J13">
-        <v>4.746684075151645e-07</v>
+        <v>4.589000631480191e-07</v>
       </c>
       <c r="K13">
-        <v>2.468889633106781e-06</v>
+        <v>2.652082053727616e-06</v>
       </c>
       <c r="L13">
-        <v>0.9999977772981908</v>
+        <v>0.9999976123771778</v>
       </c>
       <c r="M13">
-        <v>1.000000109110537</v>
+        <v>1.000000117206575</v>
       </c>
       <c r="N13">
-        <v>2.343992558710335e-05</v>
+        <v>2.039513236108231e-05</v>
       </c>
       <c r="O13">
-        <v>4.030324506076883e-06</v>
+        <v>3.87816454846778e-06</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.5400817742779785</v>
+        <v>0.5375902183767163</v>
       </c>
       <c r="R13">
-        <v>0.8869417707072927</v>
+        <v>0.9289579922185979</v>
       </c>
       <c r="S13">
-        <v>0.9999998749891077</v>
+        <v>0.9999999084850011</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0.8861311449686839</v>
+        <v>0.9281278650225401</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1369,58 +1369,58 @@
         <v>8.376776400682913e-08</v>
       </c>
       <c r="B14">
-        <v>2.28533141732466</v>
+        <v>2.008526479328296</v>
       </c>
       <c r="C14">
-        <v>4.437559474201509</v>
+        <v>3.989328894637649</v>
       </c>
       <c r="D14">
-        <v>245968420121.9418</v>
+        <v>238686518956.3706</v>
       </c>
       <c r="E14">
-        <v>1.358336003281411e-09</v>
+        <v>1.186310189056195e-09</v>
       </c>
       <c r="F14">
-        <v>4.450459228746498e-06</v>
+        <v>4.318703273128008e-06</v>
       </c>
       <c r="G14">
-        <v>19063.84519396865</v>
+        <v>18199.90329806331</v>
       </c>
       <c r="H14">
-        <v>0.999268618960702</v>
+        <v>0.9992832427842835</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
       </c>
       <c r="J14">
-        <v>5.288353689799663e-07</v>
+        <v>5.131791847923322e-07</v>
       </c>
       <c r="K14">
-        <v>2.750627889750859e-06</v>
+        <v>2.965772758883498e-06</v>
       </c>
       <c r="L14">
-        <v>0.9999975236603914</v>
+        <v>0.9999973299747348</v>
       </c>
       <c r="M14">
-        <v>1.000000121561727</v>
+        <v>1.000000131069877</v>
       </c>
       <c r="N14">
-        <v>2.611478139362527e-05</v>
+        <v>2.28074873796999e-05</v>
       </c>
       <c r="O14">
-        <v>4.030325192864988e-06</v>
+        <v>3.87816508831579e-06</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>0.5368136311256575</v>
+        <v>0.5342033557678189</v>
       </c>
       <c r="R14">
-        <v>0.8875849774442346</v>
+        <v>0.9293787881773155</v>
       </c>
       <c r="S14">
-        <v>0.9999998407273507</v>
+        <v>0.9999998824232716</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0.8869334770024109</v>
+        <v>0.9287100603438146</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1440,58 +1440,58 @@
         <v>9.999999999999992e-08</v>
       </c>
       <c r="B15">
-        <v>1.914371028438446</v>
+        <v>1.682497721218402</v>
       </c>
       <c r="C15">
-        <v>3.837426590726809</v>
+        <v>3.464906961430346</v>
       </c>
       <c r="D15">
-        <v>178177215889.8146</v>
+        <v>173658701263.5648</v>
       </c>
       <c r="E15">
-        <v>9.839658570299123e-10</v>
+        <v>8.631115306721192e-10</v>
       </c>
       <c r="F15">
-        <v>3.223870911623768e-06</v>
+        <v>3.142114623118723e-06</v>
       </c>
       <c r="G15">
-        <v>26317.07909674321</v>
+        <v>25014.99511368697</v>
       </c>
       <c r="H15">
-        <v>0.9994110786928097</v>
+        <v>0.9994211529532886</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
       </c>
       <c r="J15">
-        <v>5.922759249433472e-07</v>
+        <v>5.772560054981633e-07</v>
       </c>
       <c r="K15">
-        <v>3.080600831823094e-06</v>
+        <v>3.336086471825924e-06</v>
       </c>
       <c r="L15">
-        <v>0.9999972266002283</v>
+        <v>0.999996996598729</v>
       </c>
       <c r="M15">
-        <v>1.000000136144609</v>
+        <v>1.000000147435586</v>
       </c>
       <c r="N15">
-        <v>2.924758291873752e-05</v>
+        <v>2.565528659464844e-05</v>
       </c>
       <c r="O15">
-        <v>4.030326091503418e-06</v>
+        <v>3.878165803203508e-06</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>0.5334555482425322</v>
+        <v>0.5307664423860087</v>
       </c>
       <c r="R15">
-        <v>0.8882461301162163</v>
+        <v>0.9298059662984529</v>
       </c>
       <c r="S15">
-        <v>0.9999997946816167</v>
+        <v>0.9999998469404106</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0.8877203787679817</v>
+        <v>0.9292648176639892</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1511,58 +1511,58 @@
         <v>1.193776641714435e-07</v>
       </c>
       <c r="B16">
-        <v>1.603625805317427</v>
+        <v>1.40939072053051</v>
       </c>
       <c r="C16">
-        <v>3.338800876414781</v>
+        <v>3.029909623528353</v>
       </c>
       <c r="D16">
-        <v>129861235338.4022</v>
+        <v>127207163518.9409</v>
       </c>
       <c r="E16">
-        <v>7.17145686032792e-10</v>
+        <v>6.322399558352993e-10</v>
       </c>
       <c r="F16">
-        <v>2.349659899354929e-06</v>
+        <v>2.301638131288843e-06</v>
       </c>
       <c r="G16">
-        <v>36108.57290545961</v>
+        <v>34149.58280168299</v>
       </c>
       <c r="H16">
-        <v>0.9995237841450709</v>
+        <v>0.9995303405623904</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
       </c>
       <c r="J16">
-        <v>6.673938651263413e-07</v>
+        <v>6.537538343250226e-07</v>
       </c>
       <c r="K16">
-        <v>3.47131127482262e-06</v>
+        <v>3.778183859194123e-06</v>
       </c>
       <c r="L16">
-        <v>0.9999968748626572</v>
+        <v>0.9999965986016188</v>
       </c>
       <c r="M16">
-        <v>1.000000153411734</v>
+        <v>1.000000166973714</v>
       </c>
       <c r="N16">
-        <v>3.295703334827681e-05</v>
+        <v>2.905511908444257e-05</v>
       </c>
       <c r="O16">
-        <v>4.030327287058703e-06</v>
+        <v>3.878166766694492e-06</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.5300855552121969</v>
+        <v>0.527355378372762</v>
       </c>
       <c r="R16">
-        <v>0.8889098788022808</v>
+        <v>0.9302300957012246</v>
       </c>
       <c r="S16">
-        <v>0.9999997316748818</v>
+        <v>0.9999997976976216</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.8884835507793287</v>
+        <v>0.9297898536617931</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1582,58 +1582,58 @@
         <v>1.425102670302997e-07</v>
       </c>
       <c r="B17">
-        <v>1.343321480150916</v>
+        <v>1.180615092708147</v>
       </c>
       <c r="C17">
-        <v>2.925480192729379</v>
+        <v>2.670039816145711</v>
       </c>
       <c r="D17">
-        <v>95315404695.22704</v>
+        <v>93902370319.9704</v>
       </c>
       <c r="E17">
-        <v>5.263697908889218e-10</v>
+        <v>4.66709804869504e-10</v>
       </c>
       <c r="F17">
-        <v>1.724600752638406e-06</v>
+        <v>1.699033845013519e-06</v>
       </c>
       <c r="G17">
-        <v>49195.65624049174</v>
+        <v>46261.57517382113</v>
       </c>
       <c r="H17">
-        <v>0.9996130547037001</v>
+        <v>0.9996169134511731</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
       </c>
       <c r="J17">
-        <v>7.573498533883871e-07</v>
+        <v>7.461222729111786e-07</v>
       </c>
       <c r="K17">
-        <v>3.93919875867406e-06</v>
+        <v>4.312000909958333e-06</v>
       </c>
       <c r="L17">
-        <v>0.9999964536489611</v>
+        <v>0.999996118037384</v>
       </c>
       <c r="M17">
-        <v>1.000000174089635</v>
+        <v>1.000000190565318</v>
       </c>
       <c r="N17">
-        <v>3.739921158806063e-05</v>
+        <v>3.316029727515358e-05</v>
       </c>
       <c r="O17">
-        <v>4.030328906391491e-06</v>
+        <v>3.878168089665191e-06</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0.5267840272158575</v>
+        <v>0.5240359191068635</v>
       </c>
       <c r="R17">
-        <v>0.8895603882786455</v>
+        <v>0.9306429930845589</v>
       </c>
       <c r="S17">
-        <v>0.9999996437613378</v>
+        <v>0.9999997279514711</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>0.889212706825855</v>
+        <v>0.9302826118527401</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1653,58 +1653,58 @@
         <v>1.701254279852587e-07</v>
       </c>
       <c r="B18">
-        <v>1.125270367345864</v>
+        <v>0.9889748646887685</v>
       </c>
       <c r="C18">
-        <v>2.583811033438468</v>
+        <v>2.37321694199054</v>
       </c>
       <c r="D18">
-        <v>70518587652.00418</v>
+        <v>69915453731.5513</v>
       </c>
       <c r="E18">
-        <v>3.894318484494279e-10</v>
+        <v>3.47490991518407e-10</v>
       </c>
       <c r="F18">
-        <v>1.275936557459046e-06</v>
+        <v>1.265023681240551e-06</v>
       </c>
       <c r="G18">
-        <v>66494.58022258725</v>
+        <v>62133.2099229003</v>
       </c>
       <c r="H18">
-        <v>0.9996838749742808</v>
+        <v>0.9996856909904258</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
       </c>
       <c r="J18">
-        <v>8.662990225854514e-07</v>
+        <v>8.58889709053041e-07</v>
       </c>
       <c r="K18">
-        <v>4.505875348283903e-06</v>
+        <v>4.96370815006007e-06</v>
       </c>
       <c r="L18">
-        <v>0.999995943504439</v>
+        <v>0.9999955313481707</v>
       </c>
       <c r="M18">
-        <v>1.000000199133438</v>
+        <v>1.000000219366981</v>
       </c>
       <c r="N18">
-        <v>4.277930509823243e-05</v>
+        <v>3.817207864287883e-05</v>
       </c>
       <c r="O18">
-        <v>4.030331141431586e-06</v>
+        <v>3.878169941486203e-06</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>0.5236175155713554</v>
+        <v>0.5208429342679713</v>
       </c>
       <c r="R18">
-        <v>0.8901845249384785</v>
+        <v>0.9310403067903079</v>
       </c>
       <c r="S18">
-        <v>0.9999995185358161</v>
+        <v>0.9999996270496919</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0.8898990769898614</v>
+        <v>0.930743166125238</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1724,58 +1724,58 @@
         <v>2.030917620904733e-07</v>
       </c>
       <c r="B19">
-        <v>0.9426138257570638</v>
+        <v>0.828442130739346</v>
       </c>
       <c r="C19">
-        <v>2.302243418792178</v>
+        <v>2.129187003573443</v>
       </c>
       <c r="D19">
-        <v>52634562869.04655</v>
+        <v>52544403976.15022</v>
       </c>
       <c r="E19">
-        <v>2.906691099880226e-10</v>
+        <v>2.611540948661027e-10</v>
       </c>
       <c r="F19">
-        <v>9.523498014722973e-07</v>
+        <v>9.507185006868343e-07</v>
       </c>
       <c r="G19">
-        <v>89087.92299607604</v>
+        <v>82674.29516431596</v>
       </c>
       <c r="H19">
-        <v>0.99974017860519</v>
+        <v>0.9997404770618932</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
       </c>
       <c r="J19">
-        <v>9.99691520620781e-07</v>
+        <v>9.979791271700889e-07</v>
       </c>
       <c r="K19">
-        <v>5.199688861716689e-06</v>
+        <v>5.767535778936769e-06</v>
       </c>
       <c r="L19">
-        <v>0.9999953189114583</v>
+        <v>0.9999948077216912</v>
       </c>
       <c r="M19">
-        <v>1.000000229795953</v>
+        <v>1.000000254891479</v>
       </c>
       <c r="N19">
-        <v>4.93664513635462e-05</v>
+        <v>4.43537014412355e-05</v>
       </c>
       <c r="O19">
-        <v>4.030334286355358e-06</v>
+        <v>3.878172583970041e-06</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>0.52061675287687</v>
+        <v>0.5177557105105189</v>
       </c>
       <c r="R19">
-        <v>0.890776200587412</v>
+        <v>0.9314245992711024</v>
       </c>
       <c r="S19">
-        <v>0.9999993363216138</v>
+        <v>0.9999994779145686</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0.890539998121109</v>
+        <v>0.9311775521073526</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1795,58 +1795,58 @@
         <v>2.424462017082326e-07</v>
       </c>
       <c r="B20">
-        <v>0.7896065250559212</v>
+        <v>0.6939674490108827</v>
       </c>
       <c r="C20">
-        <v>2.070960585701252</v>
+        <v>1.929202873132804</v>
       </c>
       <c r="D20">
-        <v>39661445359.0413</v>
+        <v>39881132884.01536</v>
       </c>
       <c r="E20">
-        <v>2.190263658507696e-10</v>
+        <v>1.982156114148177e-10</v>
       </c>
       <c r="F20">
-        <v>7.176191375952347e-07</v>
+        <v>7.215940802829039e-07</v>
       </c>
       <c r="G20">
-        <v>118228.265292929</v>
+        <v>108925.4805321349</v>
       </c>
       <c r="H20">
-        <v>0.9997850706488901</v>
+        <v>0.9997842735601479</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
       </c>
       <c r="J20">
-        <v>1.164646951133774e-06</v>
+        <v>1.171098012204469e-06</v>
       </c>
       <c r="K20">
-        <v>6.0576704460613e-06</v>
+        <v>6.768027007923418e-06</v>
       </c>
       <c r="L20">
-        <v>0.9999945465366975</v>
+        <v>0.9999939070634073</v>
       </c>
       <c r="M20">
-        <v>1.000000267713741</v>
+        <v>1.000000299107362</v>
       </c>
       <c r="N20">
-        <v>5.751222840536382e-05</v>
+        <v>5.204771340161369e-05</v>
       </c>
       <c r="O20">
-        <v>4.030338797233301e-06</v>
+        <v>3.878176425962123e-06</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>0.5177516319942075</v>
+        <v>0.5146743298970249</v>
       </c>
       <c r="R20">
-        <v>0.891341322021843</v>
+        <v>0.9318083015271139</v>
       </c>
       <c r="S20">
-        <v>0.9999990654565483</v>
+        <v>0.999999252805104</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0.8911440539438248</v>
+        <v>0.9316009135275111</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1866,58 +1866,58 @@
         <v>2.894266124716747e-07</v>
       </c>
       <c r="B21">
-        <v>0.6614357304913688</v>
+        <v>0.581321014971649</v>
       </c>
       <c r="C21">
-        <v>1.8815774525414</v>
+        <v>1.76577033528459</v>
       </c>
       <c r="D21">
-        <v>30185315993.75608</v>
+        <v>30577412079.37641</v>
       </c>
       <c r="E21">
-        <v>1.666953890439186e-10</v>
+        <v>1.519746304204334e-10</v>
       </c>
       <c r="F21">
-        <v>5.461616498184646e-07</v>
+        <v>5.532560875594529e-07</v>
       </c>
       <c r="G21">
-        <v>155343.8726558204</v>
+        <v>142067.9929446107</v>
       </c>
       <c r="H21">
-        <v>0.999821001283176</v>
+        <v>0.9998194470056955</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
       </c>
       <c r="J21">
-        <v>1.370415471600068e-06</v>
+        <v>1.388216661496476e-06</v>
       </c>
       <c r="K21">
-        <v>7.127932883914242e-06</v>
+        <v>8.022802327340149e-06</v>
       </c>
       <c r="L21">
-        <v>0.9999935830729269</v>
+        <v>0.9999927775091618</v>
       </c>
       <c r="M21">
-        <v>1.000000315013105</v>
+        <v>1.000000354561121</v>
       </c>
       <c r="N21">
-        <v>6.767342458260088e-05</v>
+        <v>6.169722959473216e-05</v>
       </c>
       <c r="O21">
-        <v>4.030345388014162e-06</v>
+        <v>3.878182111320389e-06</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.5149089083557691</v>
+        <v>0.5114049727272655</v>
       </c>
       <c r="R21">
-        <v>0.8919022112545636</v>
+        <v>0.9322155619085596</v>
       </c>
       <c r="S21">
-        <v>0.9999986543444557</v>
+        <v>0.9999989061462019</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0.8917356396856064</v>
+        <v>0.9320394963787548</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1937,58 +1937,58 @@
         <v>3.455107294592214e-07</v>
       </c>
       <c r="B22">
-        <v>0.5540699217748566</v>
+        <v>0.4869596159435552</v>
       </c>
       <c r="C22">
-        <v>1.726903871456811</v>
+        <v>1.632456107396091</v>
       </c>
       <c r="D22">
-        <v>23206984524.91443</v>
+        <v>23680177082.16037</v>
       </c>
       <c r="E22">
-        <v>1.281582513403874e-10</v>
+        <v>1.176942689266701e-10</v>
       </c>
       <c r="F22">
-        <v>4.198983690633106e-07</v>
+        <v>4.284601355792125e-07</v>
       </c>
       <c r="G22">
-        <v>202055.7164062241</v>
+        <v>183447.5962103315</v>
       </c>
       <c r="H22">
-        <v>0.9998499013158831</v>
+        <v>0.999847858611674</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
       </c>
       <c r="J22">
-        <v>1.628943452303202e-06</v>
+        <v>1.662157759701773e-06</v>
       </c>
       <c r="K22">
-        <v>8.472612751629279e-06</v>
+        <v>9.605966786601432e-06</v>
       </c>
       <c r="L22">
-        <v>0.999992372591656</v>
+        <v>0.9999913523595655</v>
       </c>
       <c r="M22">
-        <v>1.000000374440121</v>
+        <v>1.000000424527766</v>
       </c>
       <c r="N22">
-        <v>8.043997178465364e-05</v>
+        <v>7.387213521298476e-05</v>
       </c>
       <c r="O22">
-        <v>4.030355185288585e-06</v>
+        <v>3.878190660951269e-06</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.5118809175119104</v>
+        <v>0.5076631979275652</v>
       </c>
       <c r="R22">
-        <v>0.8924998594141156</v>
+        <v>0.9326818626621735</v>
       </c>
       <c r="S22">
-        <v>0.9999980179919202</v>
+        <v>0.999998362347906</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0.8923573212576328</v>
+        <v>0.9325303717156125</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2008,58 +2008,58 @@
         <v>4.124626382901346e-07</v>
       </c>
       <c r="B23">
-        <v>0.464131984505185</v>
+        <v>0.4079151818921591</v>
       </c>
       <c r="C23">
-        <v>1.600768593423326</v>
+        <v>1.523751960488155</v>
       </c>
       <c r="D23">
-        <v>18020051490.3535</v>
+        <v>18515465415.37505</v>
       </c>
       <c r="E23">
-        <v>9.951393235032819e-11</v>
+        <v>9.202482558888045e-11</v>
       </c>
       <c r="F23">
-        <v>3.260479715972154e-07</v>
+        <v>3.3501180310684e-07</v>
       </c>
       <c r="G23">
-        <v>260215.8981798645</v>
+        <v>234618.5454214955</v>
       </c>
       <c r="H23">
-        <v>0.9998732880434755</v>
+        <v>0.9998709663600124</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
       </c>
       <c r="J23">
-        <v>1.955573270320348e-06</v>
+        <v>2.009336614450373e-06</v>
       </c>
       <c r="K23">
-        <v>1.01715102531242e-05</v>
+        <v>1.161238797511951e-05</v>
       </c>
       <c r="L23">
-        <v>0.9999908432684047</v>
+        <v>0.9999895462314793</v>
       </c>
       <c r="M23">
-        <v>1.000000449521492</v>
+        <v>1.000000513199893</v>
       </c>
       <c r="N23">
-        <v>9.656950243728383e-05</v>
+        <v>8.930198424589444e-05</v>
       </c>
       <c r="O23">
-        <v>4.030369978270251e-06</v>
+        <v>3.878203702619719e-06</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>0.5083740749720167</v>
+        <v>0.5031020355378298</v>
       </c>
       <c r="R23">
-        <v>0.89319228591177</v>
+        <v>0.9332505547871413</v>
       </c>
       <c r="S23">
-        <v>0.9999970151202722</v>
+        <v>0.9999974950407918</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0.8930682643746716</v>
+        <v>0.9331180419161288</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2079,58 +2079,58 @@
         <v>4.923882631706733e-07</v>
       </c>
       <c r="B24">
-        <v>0.3887929854605164</v>
+        <v>0.3417014269154518</v>
       </c>
       <c r="C24">
-        <v>1.497897005972859</v>
+        <v>1.434984228122851</v>
       </c>
       <c r="D24">
-        <v>14124931435.91274</v>
+        <v>14606440928.06469</v>
       </c>
       <c r="E24">
-        <v>7.800352136168453e-11</v>
+        <v>7.259634844303e-11</v>
       </c>
       <c r="F24">
-        <v>2.555711478457461e-07</v>
+        <v>2.642833978248869e-07</v>
       </c>
       <c r="G24">
-        <v>331973.567807038</v>
+        <v>297407.9438619875</v>
       </c>
       <c r="H24">
-        <v>0.9998923485420251</v>
+        <v>0.9998899060966903</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
       </c>
       <c r="J24">
-        <v>2.369928166205118e-06</v>
+        <v>2.450717436788384e-06</v>
       </c>
       <c r="K24">
-        <v>1.232669161906389e-05</v>
+        <v>1.41632225724218e-05</v>
       </c>
       <c r="L24">
-        <v>0.9999889032424976</v>
+        <v>0.9999872500869113</v>
       </c>
       <c r="M24">
-        <v>1.000000544767952</v>
+        <v>1.00000062593192</v>
       </c>
       <c r="N24">
-        <v>0.0001170310452162409</v>
+        <v>0.0001089184999453562</v>
       </c>
       <c r="O24">
-        <v>4.030392623577345e-06</v>
+        <v>3.878223844063728e-06</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>0.5040426404214914</v>
+        <v>0.4973651110309316</v>
       </c>
       <c r="R24">
-        <v>0.8940479241099574</v>
+        <v>0.9339662823135051</v>
       </c>
       <c r="S24">
-        <v>0.9999954091152986</v>
+        <v>0.9999960915344377</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0.8939376545988883</v>
+        <v>0.9338479017153652</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2150,58 +2150,58 @@
         <v>5.878016072274904e-07</v>
       </c>
       <c r="B25">
-        <v>0.3256831905356711</v>
+        <v>0.2862356449065036</v>
       </c>
       <c r="C25">
-        <v>1.413830277942435</v>
+        <v>1.362251758681338</v>
       </c>
       <c r="D25">
-        <v>11168082072.01462</v>
+        <v>11615330702.71645</v>
       </c>
       <c r="E25">
-        <v>6.167461643449356e-11</v>
+        <v>5.773005204541321e-11</v>
       </c>
       <c r="F25">
-        <v>2.020710378192244e-07</v>
+        <v>2.10163384776059e-07</v>
       </c>
       <c r="G25">
-        <v>419866.5315649734</v>
+        <v>373994.6519595314</v>
       </c>
       <c r="H25">
-        <v>0.9999080061423469</v>
+        <v>0.9999055571581941</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
       </c>
       <c r="J25">
-        <v>2.897064738739799e-06</v>
+        <v>3.013083606536514e-06</v>
       </c>
       <c r="K25">
-        <v>1.5068483570155e-05</v>
+        <v>1.741325748455797e-05</v>
       </c>
       <c r="L25">
-        <v>0.9999864352252819</v>
+        <v>0.9999843246305397</v>
       </c>
       <c r="M25">
-        <v>1.000000665939182</v>
+        <v>1.000000769564528</v>
       </c>
       <c r="N25">
-        <v>0.000143061937179614</v>
+        <v>0.0001339120298845937</v>
       </c>
       <c r="O25">
-        <v>4.030427703220027e-06</v>
+        <v>3.878255281786919e-06</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>0.4985456849695415</v>
+        <v>0.4901552726883197</v>
       </c>
       <c r="R25">
-        <v>0.8951344369909705</v>
+        <v>0.934866471127959</v>
       </c>
       <c r="S25">
-        <v>0.999992801118149</v>
+        <v>0.9999937916809503</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0.8950335056541857</v>
+        <v>0.9347577233781769</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2221,58 +2221,58 @@
         <v>7.017038286703817e-07</v>
       </c>
       <c r="B26">
-        <v>0.2728175264578329</v>
+        <v>0.2397731995287056</v>
       </c>
       <c r="C26">
-        <v>1.344867416700427</v>
+        <v>1.302370937912051</v>
       </c>
       <c r="D26">
-        <v>8898928420.893532</v>
+        <v>9302203186.646492</v>
       </c>
       <c r="E26">
-        <v>4.914344231154244e-11</v>
+        <v>4.623343819014293e-11</v>
       </c>
       <c r="F26">
-        <v>1.61013832983461e-07</v>
+        <v>1.683105335195545e-07</v>
       </c>
       <c r="G26">
-        <v>526929.0483110677</v>
+        <v>466993.8375237068</v>
       </c>
       <c r="H26">
-        <v>0.9999209745274464</v>
+        <v>0.9999185965035305</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
       </c>
       <c r="J26">
-        <v>3.569012640389075e-06</v>
+        <v>3.730750398964927e-06</v>
       </c>
       <c r="K26">
-        <v>1.856348172487578e-05</v>
+        <v>2.156080805951123e-05</v>
       </c>
       <c r="L26">
-        <v>0.9999832892978081</v>
+        <v>0.9999805914086501</v>
       </c>
       <c r="M26">
-        <v>1.000000820397738</v>
+        <v>1.000000952862099</v>
       </c>
       <c r="N26">
-        <v>0.0001762438565231004</v>
+        <v>0.0001658076655537692</v>
       </c>
       <c r="O26">
-        <v>4.030482599861916e-06</v>
+        <v>3.878304800203045e-06</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>0.4916153814434876</v>
+        <v>0.4813003997817135</v>
       </c>
       <c r="R26">
-        <v>0.8965052872321533</v>
+        <v>0.9359731406234266</v>
       </c>
       <c r="S26">
-        <v>0.9999885147909811</v>
+        <v>0.9999899821166947</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0.896409164864342</v>
+        <v>0.9358694091712939</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2292,58 +2292,58 @@
         <v>8.376776400682906e-07</v>
       </c>
       <c r="B27">
-        <v>0.2285331417324662</v>
+        <v>0.2008526479328298</v>
       </c>
       <c r="C27">
-        <v>1.288008523043335</v>
+        <v>1.252807870262783</v>
       </c>
       <c r="D27">
-        <v>7139271560.37884</v>
+        <v>7495705602.917683</v>
       </c>
       <c r="E27">
-        <v>3.942591326503611e-11</v>
+        <v>3.725485615939734e-11</v>
       </c>
       <c r="F27">
-        <v>1.291752696816264e-07</v>
+        <v>1.356244519517324e-07</v>
       </c>
       <c r="G27">
-        <v>656804.2473454978</v>
+        <v>579541.3792487237</v>
       </c>
       <c r="H27">
-        <v>0.9999318025450769</v>
+        <v>0.9999295438182415</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
       </c>
       <c r="J27">
-        <v>4.426852416392199e-06</v>
+        <v>4.647866687827727e-06</v>
       </c>
       <c r="K27">
-        <v>2.302535805013573e-05</v>
+        <v>2.686102012352608e-05</v>
       </c>
       <c r="L27">
-        <v>0.9999792731925762</v>
+        <v>0.9999758208491156</v>
       </c>
       <c r="M27">
-        <v>1.000001017586676</v>
+        <v>1.000001187100592</v>
       </c>
       <c r="N27">
-        <v>0.0002186054297746933</v>
+        <v>0.0002065675381359357</v>
       </c>
       <c r="O27">
-        <v>4.030569264297892e-06</v>
+        <v>3.878383420335661e-06</v>
       </c>
       <c r="P27">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>0.4831172460540379</v>
+        <v>0.4707956549538924</v>
       </c>
       <c r="R27">
-        <v>0.8981878479592631</v>
+        <v>0.9372875959347504</v>
       </c>
       <c r="S27">
-        <v>0.9999813967332707</v>
+        <v>0.9999836123127879</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="W27">
-        <v>0.8980912707947604</v>
+        <v>0.937183538485683</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2363,58 +2363,58 @@
         <v>9.999999999999983e-07</v>
       </c>
       <c r="B28">
-        <v>0.1914371028438448</v>
+        <v>0.1682497721218404</v>
       </c>
       <c r="C28">
-        <v>1.240881132967967</v>
+        <v>1.211587381972467</v>
       </c>
       <c r="D28">
-        <v>5761588926.72278</v>
+        <v>6072390790.366426</v>
       </c>
       <c r="E28">
-        <v>3.181779868893388e-11</v>
+        <v>3.018075381064759e-11</v>
       </c>
       <c r="F28">
-        <v>1.042480030504112e-07</v>
+        <v>1.098715339966958e-07</v>
       </c>
       <c r="G28">
-        <v>813856.0288571173</v>
+        <v>715380.764105132</v>
       </c>
       <c r="H28">
-        <v>0.9999409115510471</v>
+        <v>0.9999387988022069</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
       </c>
       <c r="J28">
-        <v>5.523497736912858e-06</v>
+        <v>5.821456062697208e-06</v>
       </c>
       <c r="K28">
-        <v>2.872933206686449e-05</v>
+        <v>3.364344525152793e-05</v>
       </c>
       <c r="L28">
-        <v>0.9999741392830651</v>
+        <v>0.9999697164626775</v>
       </c>
       <c r="M28">
-        <v>1.000001269669095</v>
+        <v>1.000001486844267</v>
       </c>
       <c r="N28">
-        <v>0.0002727596231051777</v>
+        <v>0.0002587259764543511</v>
       </c>
       <c r="O28">
-        <v>4.030707135585925e-06</v>
+        <v>3.878509130900994e-06</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>0.4730829229218373</v>
+        <v>0.4588085484180427</v>
       </c>
       <c r="R28">
-        <v>0.9001768514374791</v>
+        <v>0.9387896924883562</v>
       </c>
       <c r="S28">
-        <v>0.9999694690148843</v>
+        <v>0.9999728732316936</v>
       </c>
       <c r="T28">
         <v>1</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0.9000729025889184</v>
+        <v>0.9386783453012086</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2434,58 +2434,58 @@
         <v>1.193776641714434e-06</v>
       </c>
       <c r="B29">
-        <v>0.1603625805317428</v>
+        <v>0.1409390720530511</v>
       </c>
       <c r="C29">
-        <v>1.201643082985471</v>
+        <v>1.177183402235007</v>
       </c>
       <c r="D29">
-        <v>4673739494.159452</v>
+        <v>4942264956.586769</v>
       </c>
       <c r="E29">
-        <v>2.581025898254616e-11</v>
+        <v>2.456384759662929e-11</v>
       </c>
       <c r="F29">
-        <v>8.456486834459043e-08</v>
+        <v>8.942346613458561e-08</v>
       </c>
       <c r="G29">
-        <v>1003287.386827933</v>
+        <v>878963.714352823</v>
       </c>
       <c r="H29">
-        <v>0.9999486261088119</v>
+        <v>0.9999466711240756</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
       </c>
       <c r="J29">
-        <v>6.927350822662568e-06</v>
+        <v>7.325355479399704e-06</v>
       </c>
       <c r="K29">
-        <v>3.603118379101088e-05</v>
+        <v>4.233480307416051e-05</v>
       </c>
       <c r="L29">
-        <v>0.9999675674939934</v>
+        <v>0.999961894387381</v>
       </c>
       <c r="M29">
-        <v>1.0000015923684</v>
+        <v>1.000001870951646</v>
       </c>
       <c r="N29">
-        <v>0.000342084253403324</v>
+        <v>0.0003255645544466764</v>
       </c>
       <c r="O29">
-        <v>4.030927981765611e-06</v>
+        <v>3.878711421756133e-06</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>0.4617053664002762</v>
+        <v>0.4456472636818296</v>
       </c>
       <c r="R29">
-        <v>0.9024351781422437</v>
+        <v>0.940441641438567</v>
       </c>
       <c r="S29">
-        <v>0.9999493219196212</v>
+        <v>0.9999546343936978</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0.9023138199550893</v>
+        <v>0.940312994744768</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2505,58 +2505,58 @@
         <v>1.425102670302995e-06</v>
       </c>
       <c r="B30">
-        <v>0.1343321480150917</v>
+        <v>0.1180615092708148</v>
       </c>
       <c r="C30">
-        <v>1.168870436315814</v>
+        <v>1.148407561097819</v>
       </c>
       <c r="D30">
-        <v>3808310134.883715</v>
+        <v>4038823369.912493</v>
       </c>
       <c r="E30">
-        <v>2.103101188888182e-11</v>
+        <v>2.007359836020427e-11</v>
       </c>
       <c r="F30">
-        <v>6.890611801840052e-08</v>
+        <v>7.3076936994566e-08</v>
       </c>
       <c r="G30">
-        <v>1231282.043145082</v>
+        <v>1075578.49543973</v>
       </c>
       <c r="H30">
-        <v>0.9999551983894084</v>
+        <v>0.9999534034509501</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
       </c>
       <c r="J30">
-        <v>8.727015715235811e-06</v>
+        <v>9.255253320214223e-06</v>
       </c>
       <c r="K30">
-        <v>4.539176883521009e-05</v>
+        <v>5.348809731003635e-05</v>
       </c>
       <c r="L30">
-        <v>0.9999591432727896</v>
+        <v>0.9999518572327152</v>
       </c>
       <c r="M30">
-        <v>1.000002006051722</v>
+        <v>1.00000236386227</v>
       </c>
       <c r="N30">
-        <v>0.000430954737504989</v>
+        <v>0.0004113360002747047</v>
       </c>
       <c r="O30">
-        <v>4.031283937851207e-06</v>
+        <v>3.879038816584552e-06</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>0.4493007429177017</v>
+        <v>0.4317060148692154</v>
       </c>
       <c r="R30">
-        <v>0.9049011779879758</v>
+        <v>0.9421946860745644</v>
       </c>
       <c r="S30">
-        <v>0.9999150502204205</v>
+        <v>0.9999234561793212</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.9047468027424714</v>
+        <v>0.9420333129590291</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2576,58 +2576,58 @@
         <v>1.701254279852586e-06</v>
       </c>
       <c r="B31">
-        <v>0.1125270367345865</v>
+        <v>0.09889748646887693</v>
       </c>
       <c r="C31">
-        <v>1.141449043185301</v>
+        <v>1.124314724943676</v>
       </c>
       <c r="D31">
-        <v>3115296488.808647</v>
+        <v>3312254043.895782</v>
       </c>
       <c r="E31">
-        <v>1.720391332979687e-11</v>
+        <v>1.646243255880906e-11</v>
       </c>
       <c r="F31">
-        <v>5.636699216113398e-08</v>
+        <v>5.993066740153404e-08</v>
       </c>
       <c r="G31">
-        <v>1505187.034574341</v>
+        <v>1311515.211691891</v>
       </c>
       <c r="H31">
-        <v>0.9999608266921729</v>
+        <v>0.9999591883663671</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
       </c>
       <c r="J31">
-        <v>1.103731924572205e-05</v>
+        <v>1.173512872265724e-05</v>
       </c>
       <c r="K31">
-        <v>5.74083352328068e-05</v>
+        <v>6.781983003019137e-05</v>
       </c>
       <c r="L31">
-        <v>0.9999483294601273</v>
+        <v>0.9999389606634849</v>
       </c>
       <c r="M31">
-        <v>1.000002537113946</v>
+        <v>1.000002997241357</v>
       </c>
       <c r="N31">
-        <v>0.0005450414177660711</v>
+        <v>0.0005215503827371097</v>
       </c>
       <c r="O31">
-        <v>4.03186086440267e-06</v>
+        <v>3.879571399494274e-06</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>0.4362528406666392</v>
+        <v>0.4174062644680824</v>
       </c>
       <c r="R31">
-        <v>0.9074994743515238</v>
+        <v>0.9439963445092063</v>
       </c>
       <c r="S31">
-        <v>0.9998563876515689</v>
+        <v>0.9998698552405446</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="W31">
-        <v>0.9072867191528968</v>
+        <v>0.9437773562528372</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2647,58 +2647,58 @@
         <v>2.030917620904732e-06</v>
       </c>
       <c r="B32">
-        <v>0.09426138257570645</v>
+        <v>0.08284421307393466</v>
       </c>
       <c r="C32">
-        <v>1.118486880239707</v>
+        <v>1.104135232560786</v>
       </c>
       <c r="D32">
-        <v>2557117441.867466</v>
+        <v>2724801889.482008</v>
       </c>
       <c r="E32">
-        <v>1.412142536096889e-11</v>
+        <v>1.35427013590279e-11</v>
       </c>
       <c r="F32">
-        <v>4.626751235994341e-08</v>
+        <v>4.930153110524993e-08</v>
       </c>
       <c r="G32">
-        <v>1833746.001272935</v>
+        <v>1594270.607461711</v>
       </c>
       <c r="H32">
-        <v>0.9999656689127264</v>
+        <v>0.9999641804452083</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
       </c>
       <c r="J32">
-        <v>1.400701721778837e-05</v>
+        <v>1.492553543147547e-05</v>
       </c>
       <c r="K32">
-        <v>7.285460555670346e-05</v>
+        <v>8.625787581843055e-05</v>
       </c>
       <c r="L32">
-        <v>0.9999344303037829</v>
+        <v>0.9999223704335083</v>
       </c>
       <c r="M32">
-        <v>1.000003219749102</v>
+        <v>1.000003812095558</v>
       </c>
       <c r="N32">
-        <v>0.0006916901063649274</v>
+        <v>0.0006633432747791507</v>
       </c>
       <c r="O32">
-        <v>4.032800568437148e-06</v>
+        <v>3.880441669540723e-06</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0.4229580401343987</v>
+        <v>0.4031481993684019</v>
       </c>
       <c r="R32">
-        <v>0.9101517388014795</v>
+        <v>0.9457964424801469</v>
       </c>
       <c r="S32">
-        <v>0.9997554330890337</v>
+        <v>0.9997772562244207</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0.9098382452159459</v>
+        <v>0.9454784989640135</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2718,58 +2718,58 @@
         <v>2.424462017082324e-06</v>
       </c>
       <c r="B33">
-        <v>0.07896065250559219</v>
+        <v>0.06939674490108833</v>
       </c>
       <c r="C33">
-        <v>1.099253568339197</v>
+        <v>1.087231711966821</v>
       </c>
       <c r="D33">
-        <v>2105205943.436797</v>
+        <v>2247562088.182702</v>
       </c>
       <c r="E33">
-        <v>1.162578930203537e-11</v>
+        <v>1.117074318820214e-11</v>
       </c>
       <c r="F33">
-        <v>3.80907972443593e-08</v>
+        <v>4.066653529170332e-08</v>
       </c>
       <c r="G33">
-        <v>2227384.87815338</v>
+        <v>1932792.685193297</v>
       </c>
       <c r="H33">
-        <v>0.9999698521285826</v>
+        <v>0.9999685048835305</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
       </c>
       <c r="J33">
-        <v>1.782872739846909e-05</v>
+        <v>1.903432388943679e-05</v>
       </c>
       <c r="K33">
-        <v>9.273244131833423e-05</v>
+        <v>0.0001100034470375122</v>
       </c>
       <c r="L33">
-        <v>0.9999165450982874</v>
+        <v>0.9999010068052528</v>
       </c>
       <c r="M33">
-        <v>1.000004098233631</v>
+        <v>1.00000486151146</v>
       </c>
       <c r="N33">
-        <v>0.0008804125931206305</v>
+        <v>0.0008459522809077436</v>
       </c>
       <c r="O33">
-        <v>4.034337809725977e-06</v>
+        <v>3.881869302896915e-06</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>0.4097827381778509</v>
+        <v>0.3892782967905017</v>
       </c>
       <c r="R33">
-        <v>0.912785103577153</v>
+        <v>0.9475512031244496</v>
       </c>
       <c r="S33">
-        <v>0.999580903518908</v>
+        <v>0.999616633251174</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="W33">
-        <v>0.9122989093869819</v>
+        <v>0.9470643494983542</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2789,58 +2789,58 @@
         <v>2.894266124716744e-06</v>
       </c>
       <c r="B34">
-        <v>0.06614357304913694</v>
+        <v>0.05813210149716495</v>
       </c>
       <c r="C34">
-        <v>1.083142472907723</v>
+        <v>1.073072051722727</v>
       </c>
       <c r="D34">
-        <v>1737637627.769068</v>
+        <v>1858212569.365624</v>
       </c>
       <c r="E34">
-        <v>9.595930035591899e-12</v>
+        <v>9.23561378375825e-12</v>
       </c>
       <c r="F34">
-        <v>3.144015566261778e-08</v>
+        <v>3.362179288790846e-08</v>
       </c>
       <c r="G34">
-        <v>2698551.072371762</v>
+        <v>2337768.905007635</v>
       </c>
       <c r="H34">
-        <v>0.9999734794878055</v>
+        <v>0.9999722638343919</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
       </c>
       <c r="J34">
-        <v>2.275179882167663e-05</v>
+        <v>2.43305496327202e-05</v>
       </c>
       <c r="K34">
-        <v>0.0001183387799904798</v>
+        <v>0.0001406114734341475</v>
       </c>
       <c r="L34">
-        <v>0.999893508156648</v>
+        <v>0.9998734725020484</v>
       </c>
       <c r="M34">
-        <v>1.000005229884613</v>
+        <v>1.000006214207899</v>
       </c>
       <c r="N34">
-        <v>0.0011235221533799</v>
+        <v>0.001081335175186395</v>
       </c>
       <c r="O34">
-        <v>4.036862005818583e-06</v>
+        <v>3.884219160761535e-06</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>0.3970367135789999</v>
+        <v>0.3760722646904778</v>
       </c>
       <c r="R34">
-        <v>0.9153375063156257</v>
+        <v>0.9492254623426242</v>
       </c>
       <c r="S34">
-        <v>0.9992780476245197</v>
+        <v>0.999337093185786</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>0.9145550155125527</v>
+        <v>0.9484498837171444</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2860,58 +2860,58 @@
         <v>3.455107294592212e-06</v>
       </c>
       <c r="B35">
-        <v>0.0554069921774857</v>
+        <v>0.04869596159435555</v>
       </c>
       <c r="C35">
-        <v>1.06964658922001</v>
+        <v>1.061210823727119</v>
       </c>
       <c r="D35">
-        <v>1437443754.307843</v>
+        <v>1539377390.51664</v>
       </c>
       <c r="E35">
-        <v>7.938139388789634e-12</v>
+        <v>7.650951931250183e-12</v>
       </c>
       <c r="F35">
-        <v>2.600856166410234e-08</v>
+        <v>2.785291018559231e-08</v>
       </c>
       <c r="G35">
-        <v>3262112.948598559</v>
+        <v>2821966.588777401</v>
       </c>
       <c r="H35">
-        <v>0.999976635312434</v>
+        <v>0.9999755412074903</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
       </c>
       <c r="J35">
-        <v>2.90990061205622e-05</v>
+        <v>3.116250773239341e-05</v>
       </c>
       <c r="K35">
-        <v>0.0001513524671272157</v>
+        <v>0.0001800948270507671</v>
       </c>
       <c r="L35">
-        <v>0.9998638109966669</v>
+        <v>0.9998379593631059</v>
       </c>
       <c r="M35">
-        <v>1.000006688897241</v>
+        <v>1.000007959142092</v>
       </c>
       <c r="N35">
-        <v>0.001436957942272263</v>
+        <v>0.001384971415226004</v>
       </c>
       <c r="O35">
-        <v>4.041020225835066e-06</v>
+        <v>3.888098170490622e-06</v>
       </c>
       <c r="P35">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>0.3849605513111297</v>
+        <v>0.3637300507579774</v>
       </c>
       <c r="R35">
-        <v>0.917760306545006</v>
+        <v>0.9507933971953877</v>
       </c>
       <c r="S35">
-        <v>0.9987509629843924</v>
+        <v>0.9988493468967717</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0.9164677437221275</v>
+        <v>0.9495222491968787</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2931,58 +2931,58 @@
         <v>4.124626382901343e-06</v>
       </c>
       <c r="B36">
-        <v>0.04641319845051853</v>
+        <v>0.04079151818921594</v>
       </c>
       <c r="C36">
-        <v>1.058341390453248</v>
+        <v>1.051274938363876</v>
       </c>
       <c r="D36">
-        <v>1191388088.74022</v>
+        <v>1277428693.64979</v>
       </c>
       <c r="E36">
-        <v>6.579321581258988e-12</v>
+        <v>6.349024996030439e-12</v>
       </c>
       <c r="F36">
-        <v>2.155652384937838e-08</v>
+        <v>2.311330989523294e-08</v>
       </c>
       <c r="G36">
-        <v>3935832.436236648</v>
+        <v>3400637.221593707</v>
       </c>
       <c r="H36">
-        <v>0.9999793889909568</v>
+        <v>0.9999784063781388</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
       </c>
       <c r="J36">
-        <v>3.728819136005971e-05</v>
+        <v>3.99810993813207e-05</v>
       </c>
       <c r="K36">
-        <v>0.0001939468218836791</v>
+        <v>0.0002310593627512745</v>
       </c>
       <c r="L36">
-        <v>0.9998255015535092</v>
+        <v>0.9997921275178391</v>
       </c>
       <c r="M36">
-        <v>1.000008571319559</v>
+        <v>1.000010211477641</v>
       </c>
       <c r="N36">
-        <v>0.001841353704858789</v>
+        <v>0.001776900635467131</v>
       </c>
       <c r="O36">
-        <v>4.04788923838155e-06</v>
+        <v>3.894517240845137e-06</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>0.3737236099906333</v>
+        <v>0.3523793851555299</v>
       </c>
       <c r="R36">
-        <v>0.9200188338429075</v>
+        <v>0.9522381858609538</v>
       </c>
       <c r="S36">
-        <v>0.9978316692451346</v>
+        <v>0.9979967656088544</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="W36">
-        <v>0.9178448168632874</v>
+        <v>0.9501125651771407</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3002,58 +3002,58 @@
         <v>4.923882631706728e-06</v>
       </c>
       <c r="B37">
-        <v>0.03887929854605168</v>
+        <v>0.03417014269154522</v>
       </c>
       <c r="C37">
-        <v>1.048871278272395</v>
+        <v>1.042951869363272</v>
       </c>
       <c r="D37">
-        <v>989068996.8415755</v>
+        <v>1061601554.366708</v>
       </c>
       <c r="E37">
-        <v>5.462034628157916e-12</v>
+        <v>5.276329581451239e-12</v>
       </c>
       <c r="F37">
-        <v>1.78958389970484e-08</v>
+        <v>1.920821556092713e-08</v>
       </c>
       <c r="G37">
-        <v>4740926.971509169</v>
+        <v>4091998.118963501</v>
       </c>
       <c r="H37">
-        <v>0.9999817979960236</v>
+        <v>0.9999809170783001</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
       </c>
       <c r="J37">
-        <v>4.78603006997797e-05</v>
+        <v>5.13700963002508e-05</v>
       </c>
       <c r="K37">
-        <v>0.0002489354639244329</v>
+        <v>0.0002968788227257463</v>
       </c>
       <c r="L37">
-        <v>0.9997760537454808</v>
+        <v>0.9997329490746093</v>
       </c>
       <c r="M37">
-        <v>1.000011001497164</v>
+        <v>1.000013120314296</v>
       </c>
       <c r="N37">
-        <v>0.002363422273776218</v>
+        <v>0.002283067703800298</v>
       </c>
       <c r="O37">
-        <v>4.059263098598959e-06</v>
+        <v>3.905162021910023e-06</v>
       </c>
       <c r="P37">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>0.3634291666360946</v>
+        <v>0.3420847129103564</v>
       </c>
       <c r="R37">
-        <v>0.9220915040172355</v>
+        <v>0.9535509755345859</v>
       </c>
       <c r="S37">
-        <v>0.9962262460401548</v>
+        <v>0.9965049040389818</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W37">
-        <v>0.918389321059796</v>
+        <v>0.9499463386179595</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3073,58 +3073,58 @@
         <v>5.878016072274899e-06</v>
       </c>
       <c r="B38">
-        <v>0.03256831905356714</v>
+        <v>0.02862356449065039</v>
       </c>
       <c r="C38">
-        <v>1.040938377050334</v>
+        <v>1.035979820564747</v>
       </c>
       <c r="D38">
-        <v>822254651.6492962</v>
+        <v>883335120.7304448</v>
       </c>
       <c r="E38">
-        <v>4.540819088268073e-12</v>
+        <v>4.390316883649627e-12</v>
       </c>
       <c r="F38">
-        <v>1.487756355469596e-08</v>
+        <v>1.598273037726447e-08</v>
       </c>
       <c r="G38">
-        <v>5702739.260160142</v>
+        <v>4917806.913377466</v>
       </c>
       <c r="H38">
-        <v>0.9999839102397908</v>
+        <v>0.999983121658818</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
       </c>
       <c r="J38">
-        <v>6.15156960495182e-05</v>
+        <v>6.608533583571003e-05</v>
       </c>
       <c r="K38">
-        <v>0.0003199611809959169</v>
+        <v>0.0003819213533817219</v>
       </c>
       <c r="L38">
-        <v>0.9997121987494154</v>
+        <v>0.9996565059643918</v>
       </c>
       <c r="M38">
-        <v>1.00001414042005</v>
+        <v>1.000016878698679</v>
       </c>
       <c r="N38">
-        <v>0.003037748699956418</v>
+        <v>0.00293706468953163</v>
       </c>
       <c r="O38">
-        <v>4.078134127570118e-06</v>
+        <v>3.922845898073703e-06</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0.35412385306668</v>
+        <v>0.332858854208936</v>
       </c>
       <c r="R38">
-        <v>0.9239680552644595</v>
+        <v>0.954729482666548</v>
       </c>
       <c r="S38">
-        <v>0.9934216980230381</v>
+        <v>0.993894070313069</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="W38">
-        <v>0.9176109801364152</v>
+        <v>0.9485580197386048</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3144,58 +3144,58 @@
         <v>7.017038286703811e-06</v>
       </c>
       <c r="B39">
-        <v>0.02728175264578331</v>
+        <v>0.02397731995287058</v>
       </c>
       <c r="C39">
-        <v>1.03429316307575</v>
+        <v>1.030139491180758</v>
       </c>
       <c r="D39">
-        <v>684387227.3307449</v>
+        <v>735778615.6465329</v>
       </c>
       <c r="E39">
-        <v>3.779460024211305e-12</v>
+        <v>3.656937444341772e-12</v>
       </c>
       <c r="F39">
-        <v>1.238304271093147e-08</v>
+        <v>1.331289898392255e-08</v>
       </c>
       <c r="G39">
-        <v>6851536.23059016</v>
+        <v>5904047.047820409</v>
       </c>
       <c r="H39">
-        <v>0.9999857659186157</v>
+        <v>0.9999850608652681</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
       </c>
       <c r="J39">
-        <v>7.916118164519115e-05</v>
+        <v>8.51054816890881e-05</v>
       </c>
       <c r="K39">
-        <v>0.0004117405279432913</v>
+        <v>0.0004918428625028814</v>
       </c>
       <c r="L39">
-        <v>0.9996297068074941</v>
+        <v>0.9995577285646581</v>
       </c>
       <c r="M39">
-        <v>1.000018196532462</v>
+        <v>1.00002173658896</v>
       </c>
       <c r="N39">
-        <v>0.003909112504166759</v>
+        <v>0.003782386848665029</v>
       </c>
       <c r="O39">
-        <v>4.109497706479916e-06</v>
+        <v>3.952268175100825e-06</v>
       </c>
       <c r="P39">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>0.34580901489625</v>
+        <v>0.3246753195311401</v>
       </c>
       <c r="R39">
-        <v>0.9256473655566402</v>
+        <v>0.9557764837815851</v>
       </c>
       <c r="S39">
-        <v>0.9885268638093261</v>
+        <v>0.9893296239165663</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="W39">
-        <v>0.9146754391416729</v>
+        <v>0.9451456672439984</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3215,58 +3215,58 @@
         <v>8.376776400682898e-06</v>
       </c>
       <c r="B40">
-        <v>0.02285331417324664</v>
+        <v>0.02008526479328299</v>
       </c>
       <c r="C40">
-        <v>1.028726615915771</v>
+        <v>1.025247177845157</v>
       </c>
       <c r="D40">
-        <v>570210409.4046538</v>
+        <v>613418162.3346227</v>
       </c>
       <c r="E40">
-        <v>3.148929964896259e-12</v>
+        <v>3.048786413709048e-12</v>
       </c>
       <c r="F40">
-        <v>1.031717070672798e-08</v>
+        <v>1.109895538740059e-08</v>
       </c>
       <c r="G40">
-        <v>8223462.438550622</v>
+        <v>7081745.912159</v>
       </c>
       <c r="H40">
-        <v>0.9999873989625623</v>
+        <v>0.9999867692372344</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
       </c>
       <c r="J40">
-        <v>0.0001019709071974937</v>
+        <v>0.000109697763269508</v>
       </c>
       <c r="K40">
-        <v>0.0005303806018527633</v>
+        <v>0.0006339669410925387</v>
       </c>
       <c r="L40">
-        <v>0.9995231051411176</v>
+        <v>0.9994300578613199</v>
       </c>
       <c r="M40">
-        <v>1.000023439732511</v>
+        <v>1.000028017645193</v>
       </c>
       <c r="N40">
-        <v>0.005035495177088043</v>
+        <v>0.004875354311892179</v>
       </c>
       <c r="O40">
-        <v>4.161699417075732e-06</v>
+        <v>4.001283516478832e-06</v>
       </c>
       <c r="P40">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>0.3384522188492124</v>
+        <v>0.3174798606119735</v>
       </c>
       <c r="R40">
-        <v>0.9271352041317139</v>
+        <v>0.9566983784012821</v>
       </c>
       <c r="S40">
-        <v>0.9800063579018916</v>
+        <v>0.9813706907726883</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0.908153644958251</v>
+        <v>0.9383282286582885</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3286,58 +3286,58 @@
         <v>9.999999999999974e-06</v>
       </c>
       <c r="B41">
-        <v>0.0191437102843845</v>
+        <v>0.01682497721218405</v>
       </c>
       <c r="C41">
-        <v>1.024063643827471</v>
+        <v>1.021148996355715</v>
       </c>
       <c r="D41">
-        <v>475487425.3284388</v>
+        <v>511792698.8450001</v>
       </c>
       <c r="E41">
-        <v>2.62583175763377e-12</v>
+        <v>2.543691600091465e-12</v>
       </c>
       <c r="F41">
-        <v>8.603288987898368e-09</v>
+        <v>9.260182826114848e-09</v>
       </c>
       <c r="G41">
-        <v>9861678.004567176</v>
+        <v>8487951.417362699</v>
       </c>
       <c r="H41">
-        <v>0.9999888381788831</v>
+        <v>0.9999882762158221</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
       </c>
       <c r="J41">
-        <v>0.0001314652426028179</v>
+        <v>0.0001415031139246926</v>
       </c>
       <c r="K41">
-        <v>0.0006837892925612405</v>
+        <v>0.0008177768955006767</v>
       </c>
       <c r="L41">
-        <v>0.9993853133824194</v>
+        <v>0.9992650089442517</v>
       </c>
       <c r="M41">
-        <v>1.000030219502855</v>
+        <v>1.000036140974269</v>
       </c>
       <c r="N41">
-        <v>0.006491975145411575</v>
+        <v>0.00628889592692982</v>
       </c>
       <c r="O41">
-        <v>4.248690754026125e-06</v>
+        <v>4.083027982577773e-06</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>0.331997752073783</v>
+        <v>0.3112004450217832</v>
       </c>
       <c r="R41">
-        <v>0.928442153297563</v>
+        <v>0.9575039321046958</v>
       </c>
       <c r="S41">
-        <v>0.9652523577063794</v>
+        <v>0.9675631451262104</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="W41">
-        <v>0.8956201101476413</v>
+        <v>0.9257537333858058</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Output/Section_1.xlsx
+++ b/Excel Output/Section_1.xlsx
@@ -508,13 +508,13 @@
         <v>7.087684130333826e-08</v>
       </c>
       <c r="F2">
-        <v>0.0002580236175575845</v>
+        <v>2.465559012216919e-05</v>
       </c>
       <c r="G2">
         <v>304.6232073171274</v>
       </c>
       <c r="H2">
-        <v>0.9887896611503364</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2243.90404453724</v>
@@ -523,19 +523,19 @@
         <v>1.643636949493113e-07</v>
       </c>
       <c r="K2">
-        <v>9.498931045446961e-07</v>
+        <v>2.723026899694796e-07</v>
       </c>
       <c r="L2">
-        <v>0.9999991448119827</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.000000041979741</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>7.304900528563438e-06</v>
+        <v>5.662713588033674e-06</v>
       </c>
       <c r="O2">
-        <v>3.878162670241887e-06</v>
+        <v>4.935757152443899e-05</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -544,25 +544,25 @@
         <v>0.561042332172635</v>
       </c>
       <c r="R2">
-        <v>0.9260485244735909</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.9999999908402316</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.9999946777898783</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.9999999992416544</v>
       </c>
       <c r="W2">
-        <v>0.9156664152680956</v>
+        <v>0.9999946770315367</v>
       </c>
       <c r="X2">
-        <v>-2.463516933193566e-05</v>
+        <v>-2.302905821548891e-06</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -582,13 +582,13 @@
         <v>4.993454217614539e-08</v>
       </c>
       <c r="F3">
-        <v>0.0001817842186029242</v>
+        <v>1.737049199983498e-05</v>
       </c>
       <c r="G3">
         <v>432.3806683992032</v>
       </c>
       <c r="H3">
-        <v>0.9911294865199533</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2039.228160405775</v>
@@ -597,19 +597,19 @@
         <v>1.790331211206668e-07</v>
       </c>
       <c r="K3">
-        <v>1.034670869927102e-06</v>
+        <v>2.966056493791026e-07</v>
       </c>
       <c r="L3">
-        <v>0.9999990684876647</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.000000045726424</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>7.956861407308007e-06</v>
+        <v>6.168109618068224e-06</v>
       </c>
       <c r="O3">
-        <v>3.878162721782123e-06</v>
+        <v>4.935757256560776e-05</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -618,25 +618,25 @@
         <v>0.5599938262080263</v>
       </c>
       <c r="R3">
-        <v>0.9261784439722154</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.9999999889052584</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.9999941620232515</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9999999991008549</v>
       </c>
       <c r="W3">
-        <v>0.9179619003218414</v>
+        <v>0.9999941611241117</v>
       </c>
       <c r="X3">
-        <v>-0.002299832529142981</v>
+        <v>-0.0002162682801344812</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -656,13 +656,13 @@
         <v>3.520839095477028e-08</v>
       </c>
       <c r="F4">
-        <v>0.0001281743971017467</v>
+        <v>1.22477757230558e-05</v>
       </c>
       <c r="G4">
         <v>613.226851237423</v>
       </c>
       <c r="H4">
-        <v>0.992982044910515</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1853.221620735355</v>
@@ -671,19 +671,19 @@
         <v>1.951682903138354e-07</v>
       </c>
       <c r="K4">
-        <v>1.127919479128663e-06</v>
+        <v>3.233369173502167e-07</v>
       </c>
       <c r="L4">
-        <v>0.9999989845373176</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.000000049847469</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>8.673965059692961e-06</v>
+        <v>6.724003922242606e-06</v>
       </c>
       <c r="O4">
-        <v>3.87816278355758e-06</v>
+        <v>4.93575738135391e-05</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -692,25 +692,25 @@
         <v>0.5587742654574864</v>
       </c>
       <c r="R4">
-        <v>0.926329577090754</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.9999999865373355</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9999935907140822</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9999999989321664</v>
       </c>
       <c r="W4">
-        <v>0.919827691285682</v>
+        <v>0.9999935896462555</v>
       </c>
       <c r="X4">
-        <v>-0.08918626688774285</v>
+        <v>-0.008441686645808119</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -730,13 +730,13 @@
         <v>2.484911943934153e-08</v>
       </c>
       <c r="F5">
-        <v>9.046198409744046e-05</v>
+        <v>8.644145147088754e-06</v>
       </c>
       <c r="G5">
         <v>868.8730711377706</v>
       </c>
       <c r="H5">
-        <v>0.9944467864173493</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1684.181516440797</v>
@@ -745,19 +745,19 @@
         <v>2.129633415017622e-07</v>
       </c>
       <c r="K5">
-        <v>1.230760902982297e-06</v>
+        <v>3.528181255215918e-07</v>
       </c>
       <c r="L5">
-        <v>0.9999988919508913</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.000000054392461</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>9.464839704294909e-06</v>
+        <v>7.337085042089079e-06</v>
       </c>
       <c r="O5">
-        <v>3.878162857865743e-06</v>
+        <v>4.935757531464469e-05</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -766,25 +766,25 @@
         <v>0.557362778762996</v>
       </c>
       <c r="R5">
-        <v>0.9265045191959397</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.999999983628642</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9999929561345802</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9999999987293376</v>
       </c>
       <c r="W5">
-        <v>0.9213584057201567</v>
+        <v>0.9999929548639268</v>
       </c>
       <c r="X5">
-        <v>-1.838495197290968</v>
+        <v>-0.1753219772659739</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -804,13 +804,13 @@
         <v>1.75582756642924e-08</v>
       </c>
       <c r="F6">
-        <v>6.392002975393097e-05</v>
+        <v>6.107913954264515e-06</v>
       </c>
       <c r="G6">
         <v>1229.66122272691</v>
       </c>
       <c r="H6">
-        <v>0.9956037614268504</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1530.560267905421</v>
@@ -819,19 +819,19 @@
         <v>2.32651834466617e-07</v>
       </c>
       <c r="K6">
-        <v>1.344544933646489e-06</v>
+        <v>3.854362143119935e-07</v>
       </c>
       <c r="L6">
-        <v>0.9999987895132438</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.000000059421053</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.033986555906131e-05</v>
+        <v>8.015399658187065e-06</v>
       </c>
       <c r="O6">
-        <v>3.878162947631245e-06</v>
+        <v>4.935757712800536e-05</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -840,25 +840,25 @@
         <v>0.5557387786071424</v>
       </c>
       <c r="R6">
-        <v>0.926705833480828</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.9999999800394497</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.9999922489603112</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9999999984844118</v>
       </c>
       <c r="W6">
-        <v>0.9226306782999093</v>
+        <v>0.9999922474447348</v>
       </c>
       <c r="X6">
-        <v>-21.24208094438863</v>
+        <v>-2.043578408926747</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -878,13 +878,13 @@
         <v>1.242404893030235e-08</v>
       </c>
       <c r="F7">
-        <v>4.522913254541529e-05</v>
+        <v>4.321894887673016e-06</v>
       </c>
       <c r="G7">
         <v>1737.817586155024</v>
       </c>
       <c r="H7">
-        <v>0.9965170428120906</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1390.95145672979</v>
@@ -893,19 +893,19 @@
         <v>2.545180226342733e-07</v>
       </c>
       <c r="K7">
-        <v>1.470914332737566e-06</v>
+        <v>4.216621087181023e-07</v>
       </c>
       <c r="L7">
-        <v>0.9999986757454932</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.000000065005844</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.131167584571154e-05</v>
+        <v>8.768740965667861e-06</v>
       </c>
       <c r="O7">
-        <v>3.878163056622215e-06</v>
+        <v>4.935757932974131e-05</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -914,25 +914,25 @@
         <v>0.5538833052377105</v>
       </c>
       <c r="R7">
-        <v>0.9269358848575884</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.9999999755866223</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0.9999914578079538</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0.9999999981871388</v>
       </c>
       <c r="W7">
-        <v>0.9237061610802081</v>
+        <v>0.9999914559951081</v>
       </c>
       <c r="X7">
-        <v>-130.3889058891068</v>
+        <v>-12.67762225301765</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -952,13 +952,13 @@
         <v>8.806046222984214e-09</v>
       </c>
       <c r="F8">
-        <v>3.205797353622575e-05</v>
+        <v>3.063317471239349e-06</v>
       </c>
       <c r="G8">
         <v>2451.807562169851</v>
       </c>
       <c r="H8">
-        <v>0.9972376870229328</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1264.076949825984</v>
@@ -967,19 +967,19 @@
         <v>2.789119469967169e-07</v>
       </c>
       <c r="K8">
-        <v>1.611892062350033e-06</v>
+        <v>4.620757245403429e-07</v>
       </c>
       <c r="L8">
-        <v>0.999998548826491</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.000000071236238</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.239582761672098e-05</v>
+        <v>9.609168695132542e-06</v>
       </c>
       <c r="O8">
-        <v>3.878163189758399e-06</v>
+        <v>4.935758201923686e-05</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -988,25 +988,25 @@
         <v>0.5517808612458522</v>
       </c>
       <c r="R8">
-        <v>0.9271966128505492</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.9999999700267712</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0.9999905686126505</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0.9999999978241378</v>
       </c>
       <c r="W8">
-        <v>0.9246340360939049</v>
+        <v>0.9999905664368088</v>
       </c>
       <c r="X8">
-        <v>-331.1248931361196</v>
+        <v>-31.70770988911709</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1026,13 +1026,13 @@
         <v>6.254421493720984e-09</v>
       </c>
       <c r="F9">
-        <v>2.276891054770793e-05</v>
+        <v>2.17569589678098e-06</v>
       </c>
       <c r="G9">
         <v>3452.074783256226</v>
       </c>
       <c r="H9">
-        <v>0.9978062381620922</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1148.775197977145</v>
@@ -1041,19 +1041,19 @@
         <v>3.062697270025786e-07</v>
       </c>
       <c r="K9">
-        <v>1.7699985504722e-06</v>
+        <v>5.073995844686974e-07</v>
       </c>
       <c r="L9">
-        <v>0.9999984064872582</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.000000078223624</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.361170355384184e-05</v>
+        <v>1.055170818127274e-05</v>
       </c>
       <c r="O9">
-        <v>3.878163353556398e-06</v>
+        <v>4.935758532813437e-05</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -1062,22 +1062,22 @@
         <v>0.5494217666575311</v>
       </c>
       <c r="R9">
-        <v>0.9274892395472877</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.9999999630316885</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0.9999895637849771</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0.999999997377687</v>
       </c>
       <c r="W9">
-        <v>0.9254530401124453</v>
+        <v>0.9999895611626914</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1097,13 +1097,13 @@
         <v>4.453113406821974e-09</v>
       </c>
       <c r="F10">
-        <v>1.621133799832961e-05</v>
+        <v>1.549083408729274e-06</v>
       </c>
       <c r="G10">
         <v>4848.457416165035</v>
       </c>
       <c r="H10">
-        <v>0.9982548082944087</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1043.990601734412</v>
@@ -1112,19 +1112,19 @@
         <v>3.37140906705436e-07</v>
       </c>
       <c r="K10">
-        <v>1.948409730252186e-06</v>
+        <v>5.585441226722935e-07</v>
       </c>
       <c r="L10">
-        <v>0.9999982458687178</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.000000086108358</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1.498372732708645e-05</v>
+        <v>1.16152925016174e-05</v>
       </c>
       <c r="O10">
-        <v>3.878163556782029e-06</v>
+        <v>4.935758943351287e-05</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1133,22 +1133,22 @@
         <v>0.5468049784848901</v>
       </c>
       <c r="R10">
-        <v>0.9278139192761128</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.9999999541515802</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0.9999884210651846</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0.9999999968239508</v>
       </c>
       <c r="W10">
-        <v>0.9261930389882633</v>
+        <v>0.9999884178891721</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1168,13 +1168,13 @@
         <v>3.180002559377332e-09</v>
       </c>
       <c r="F11">
-        <v>1.157664124310053e-05</v>
+        <v>1.106212385451828e-06</v>
       </c>
       <c r="G11">
         <v>6789.532498539113</v>
       </c>
       <c r="H11">
-        <v>0.9986087821407135</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>948.7638472949203</v>
@@ -1183,19 +1183,19 @@
         <v>3.722253387542943e-07</v>
       </c>
       <c r="K11">
-        <v>2.151170200502962e-06</v>
+        <v>6.166687908108492e-07</v>
       </c>
       <c r="L11">
-        <v>0.9999980633298073</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.00000009506919</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>1.654300284895331e-05</v>
+        <v>1.282403321624287e-05</v>
       </c>
       <c r="O11">
-        <v>3.878163811419312e-06</v>
+        <v>4.935759457746258e-05</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1204,22 +1204,22 @@
         <v>0.5439411685798831</v>
       </c>
       <c r="R11">
-        <v>0.9281693552665116</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0.9999999427595336</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0.9999871119624999</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0.9999999961303477</v>
       </c>
       <c r="W11">
-        <v>0.9268762213710627</v>
+        <v>0.9999871080928975</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1239,13 +1239,13 @@
         <v>2.278943245918157e-09</v>
       </c>
       <c r="F12">
-        <v>8.296379603086674e-06</v>
+        <v>7.927651620727267e-07</v>
       </c>
       <c r="G12">
         <v>9474.009833725071</v>
       </c>
       <c r="H12">
-        <v>0.998888199281176</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>862.2231238848399</v>
@@ -1254,19 +1254,19 @@
         <v>4.124228730421828e-07</v>
       </c>
       <c r="K12">
-        <v>2.383480387077557e-06</v>
+        <v>6.832643776288997e-07</v>
       </c>
       <c r="L12">
-        <v>0.9999978541889802</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.000000105335947</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.832952261268276e-05</v>
+        <v>1.420893225789362e-05</v>
       </c>
       <c r="O12">
-        <v>3.87816413412857e-06</v>
+        <v>4.935760109654015e-05</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1275,22 +1275,22 @@
         <v>0.5408556234995993</v>
       </c>
       <c r="R12">
-        <v>0.928552437167051</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0.9999999279659351</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0.9999855996282511</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0.9999999952515886</v>
       </c>
       <c r="W12">
-        <v>0.927518014804254</v>
+        <v>0.999985594879908</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1310,13 +1310,13 @@
         <v>1.640129404132046e-09</v>
       </c>
       <c r="F13">
-        <v>5.970809566774302e-06</v>
+        <v>5.705440252695444e-07</v>
       </c>
       <c r="G13">
         <v>13164.04100062807</v>
       </c>
       <c r="H13">
-        <v>0.9991088658038388</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>783.5761422416842</v>
@@ -1325,19 +1325,19 @@
         <v>4.589000631480191e-07</v>
       </c>
       <c r="K13">
-        <v>2.652082053727616e-06</v>
+        <v>7.602635220685832e-07</v>
       </c>
       <c r="L13">
-        <v>0.9999976123771778</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.000000117206575</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2.039513236108231e-05</v>
+        <v>1.581018012487001e-05</v>
       </c>
       <c r="O13">
-        <v>3.87816454846778e-06</v>
+        <v>4.935760946664223e-05</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1346,22 +1346,22 @@
         <v>0.5375902183767163</v>
       </c>
       <c r="R13">
-        <v>0.9289579922185979</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.9999999084850011</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0.9999838359619497</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0.9999999941236426</v>
       </c>
       <c r="W13">
-        <v>0.9281278650225401</v>
+        <v>0.9999838300856874</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1381,13 +1381,13 @@
         <v>1.186310189056195e-09</v>
       </c>
       <c r="F14">
-        <v>4.318703273128008e-06</v>
+        <v>4.12676090543343e-07</v>
       </c>
       <c r="G14">
         <v>18199.90329806331</v>
       </c>
       <c r="H14">
-        <v>0.9992832427842835</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>712.1028811242669</v>
@@ -1396,19 +1396,19 @@
         <v>5.131791847923322e-07</v>
       </c>
       <c r="K14">
-        <v>2.965772758883498e-06</v>
+        <v>8.501881908799361e-07</v>
       </c>
       <c r="L14">
-        <v>0.9999973299747348</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.000000131069877</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>2.28074873796999e-05</v>
+        <v>1.768022277496116e-05</v>
       </c>
       <c r="O14">
-        <v>3.87816508831579e-06</v>
+        <v>4.935762037215844e-05</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1417,22 +1417,22 @@
         <v>0.5342033557678189</v>
       </c>
       <c r="R14">
-        <v>0.9293787881773155</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0.9999998824232716</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.999981757688544</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.999999992654441</v>
       </c>
       <c r="W14">
-        <v>0.9287100603438146</v>
+        <v>0.999981750343119</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1452,13 +1452,13 @@
         <v>8.631115306721192e-10</v>
       </c>
       <c r="F15">
-        <v>3.142114623118723e-06</v>
+        <v>3.002465084313446e-07</v>
       </c>
       <c r="G15">
         <v>25014.99511368697</v>
       </c>
       <c r="H15">
-        <v>0.9994211529532886</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>647.1489954438608</v>
@@ -1467,19 +1467,19 @@
         <v>5.772560054981633e-07</v>
       </c>
       <c r="K15">
-        <v>3.336086471825924e-06</v>
+        <v>9.563447885900983e-07</v>
       </c>
       <c r="L15">
-        <v>0.999996996598729</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.000000147435586</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>2.565528659464844e-05</v>
+        <v>1.988781906561895e-05</v>
       </c>
       <c r="O15">
-        <v>3.878165803203508e-06</v>
+        <v>4.935763481366688e-05</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1488,22 +1488,22 @@
         <v>0.5307664423860087</v>
       </c>
       <c r="R15">
-        <v>0.9298059662984529</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.9999998469404106</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0.9999792810735317</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0.9999999907093987</v>
       </c>
       <c r="W15">
-        <v>0.9292648176639892</v>
+        <v>0.999979271783123</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1523,13 +1523,13 @@
         <v>6.322399558352993e-10</v>
       </c>
       <c r="F16">
-        <v>2.301638131288843e-06</v>
+        <v>2.199343103231561e-07</v>
       </c>
       <c r="G16">
         <v>34149.58280168299</v>
       </c>
       <c r="H16">
-        <v>0.9995303405623904</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>588.1198256673173</v>
@@ -1538,19 +1538,19 @@
         <v>6.537538343250226e-07</v>
       </c>
       <c r="K16">
-        <v>3.778183859194123e-06</v>
+        <v>1.083079372968982e-06</v>
       </c>
       <c r="L16">
-        <v>0.9999965986016188</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.000000166973714</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2.905511908444257e-05</v>
+        <v>2.252334812747486e-05</v>
       </c>
       <c r="O16">
-        <v>3.878166766694492e-06</v>
+        <v>4.935765427723135e-05</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.527355378372762</v>
       </c>
       <c r="R16">
-        <v>0.9302300957012246</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0.9999997976976216</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0.9999762948630412</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0.999999988088662</v>
       </c>
       <c r="W16">
-        <v>0.9297898536617931</v>
+        <v>0.9999762829519855</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1594,13 +1594,13 @@
         <v>4.66709804869504e-10</v>
       </c>
       <c r="F17">
-        <v>1.699033845013519e-06</v>
+        <v>1.623521229679585e-07</v>
       </c>
       <c r="G17">
         <v>46261.57517382113</v>
       </c>
       <c r="H17">
-        <v>0.9996169134511731</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>534.4749536476113</v>
@@ -1609,19 +1609,19 @@
         <v>7.461222729111786e-07</v>
       </c>
       <c r="K17">
-        <v>4.312000909958333e-06</v>
+        <v>1.236106927521389e-06</v>
       </c>
       <c r="L17">
-        <v>0.999996118037384</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.000000190565318</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>3.316029727515358e-05</v>
+        <v>2.570565680244464e-05</v>
       </c>
       <c r="O17">
-        <v>3.878168089665191e-06</v>
+        <v>4.935768100267653e-05</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1630,22 +1630,22 @@
         <v>0.5240359191068635</v>
       </c>
       <c r="R17">
-        <v>0.9306429930845589</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0.9999997279514711</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0.9999726509523443</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0.9999999844910543</v>
       </c>
       <c r="W17">
-        <v>0.9302826118527401</v>
+        <v>0.9999726354438228</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1665,13 +1665,13 @@
         <v>3.47490991518407e-10</v>
       </c>
       <c r="F18">
-        <v>1.265023681240551e-06</v>
+        <v>1.208800406518749e-07</v>
       </c>
       <c r="G18">
         <v>62133.2099229003</v>
       </c>
       <c r="H18">
-        <v>0.9996856909904258</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>485.7232550398801</v>
@@ -1680,19 +1680,19 @@
         <v>8.58889709053041e-07</v>
       </c>
       <c r="K18">
-        <v>4.96370815006007e-06</v>
+        <v>1.422929669683887e-06</v>
       </c>
       <c r="L18">
-        <v>0.9999955313481707</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1.000000219366981</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>3.817207864287883e-05</v>
+        <v>2.959075863789057e-05</v>
       </c>
       <c r="O18">
-        <v>3.878169941486203e-06</v>
+        <v>4.935771841147247e-05</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1701,22 +1701,22 @@
         <v>0.5208429342679713</v>
       </c>
       <c r="R18">
-        <v>0.9310403067903079</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0.9999996270496919</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0.9999681522012493</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0.9999999794565831</v>
       </c>
       <c r="W18">
-        <v>0.930743166125238</v>
+        <v>0.9999681316584867</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1736,13 +1736,13 @@
         <v>2.611540948661027e-10</v>
       </c>
       <c r="F19">
-        <v>9.507185006868343e-07</v>
+        <v>9.084643451007526e-08</v>
       </c>
       <c r="G19">
         <v>82674.29516431596</v>
       </c>
       <c r="H19">
-        <v>0.9997404770618932</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>441.4184030073134</v>
@@ -1751,19 +1751,19 @@
         <v>9.979791271700889e-07</v>
       </c>
       <c r="K19">
-        <v>5.767535778936769e-06</v>
+        <v>1.653360256628541e-06</v>
       </c>
       <c r="L19">
-        <v>0.9999948077216912</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.000000254891479</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>4.43537014412355e-05</v>
+        <v>3.43827142955314e-05</v>
       </c>
       <c r="O19">
-        <v>3.878172583970041e-06</v>
+        <v>4.935777179251637e-05</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -1772,22 +1772,22 @@
         <v>0.5177557105105189</v>
       </c>
       <c r="R19">
-        <v>0.9314245992711024</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0.9999994779145686</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0.9999625367225451</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0.9999999722743059</v>
       </c>
       <c r="W19">
-        <v>0.9311775521073526</v>
+        <v>0.9999625089978897</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1807,13 +1807,13 @@
         <v>1.982156114148177e-10</v>
       </c>
       <c r="F20">
-        <v>7.215940802829039e-07</v>
+        <v>6.895232322703303e-08</v>
       </c>
       <c r="G20">
         <v>108925.4805321349</v>
       </c>
       <c r="H20">
-        <v>0.9997842735601479</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>401.1547820528561</v>
@@ -1822,19 +1822,19 @@
         <v>1.171098012204469e-06</v>
       </c>
       <c r="K20">
-        <v>6.768027007923418e-06</v>
+        <v>1.94016774227138e-06</v>
       </c>
       <c r="L20">
-        <v>0.9999939070634073</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1.000000299107362</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>5.204771340161369e-05</v>
+        <v>4.034706465241372e-05</v>
       </c>
       <c r="O20">
-        <v>3.878176425962123e-06</v>
+        <v>4.935784940492976e-05</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -1843,22 +1843,22 @@
         <v>0.5146743298970249</v>
       </c>
       <c r="R20">
-        <v>0.9318083015271139</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0.999999252805104</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0.9999554578420853</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0.9999999618341857</v>
       </c>
       <c r="W20">
-        <v>0.9316009135275111</v>
+        <v>0.999955419677971</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1878,13 +1878,13 @@
         <v>1.519746304204334e-10</v>
       </c>
       <c r="F21">
-        <v>5.532560875594529e-07</v>
+        <v>5.286669281123661e-08</v>
       </c>
       <c r="G21">
         <v>142067.9929446107</v>
       </c>
       <c r="H21">
-        <v>0.9998194470056955</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>364.563774567433</v>
@@ -1893,19 +1893,19 @@
         <v>1.388216661496476e-06</v>
       </c>
       <c r="K21">
-        <v>8.022802327340149e-06</v>
+        <v>2.299870000504176e-06</v>
       </c>
       <c r="L21">
-        <v>0.9999927775091618</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.000000354561121</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>6.169722959473216e-05</v>
+        <v>4.782730976335827e-05</v>
       </c>
       <c r="O21">
-        <v>3.878182111320389e-06</v>
+        <v>4.935796425534238e-05</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -1914,22 +1914,22 @@
         <v>0.5114049727272655</v>
       </c>
       <c r="R21">
-        <v>0.9322155619085596</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0.9999989061462019</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>1</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0.9999464586972342</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0.9999999463883662</v>
       </c>
       <c r="W21">
-        <v>0.9320394963787548</v>
+        <v>0.9999464050884709</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1949,13 +1949,13 @@
         <v>1.176942689266701e-10</v>
       </c>
       <c r="F22">
-        <v>4.284601355792125e-07</v>
+        <v>4.094174628868031e-08</v>
       </c>
       <c r="G22">
         <v>183447.5962103315</v>
       </c>
       <c r="H22">
-        <v>0.999847858611674</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>331.3103860976593</v>
@@ -1964,19 +1964,19 @@
         <v>1.662157759701773e-06</v>
       </c>
       <c r="K22">
-        <v>9.605966786601432e-06</v>
+        <v>2.753710478825744e-06</v>
       </c>
       <c r="L22">
-        <v>0.9999913523595655</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.000000424527766</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>7.387213521298476e-05</v>
+        <v>5.726522109533703e-05</v>
       </c>
       <c r="O22">
-        <v>3.878190660951269e-06</v>
+        <v>4.935813696717309e-05</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -1985,22 +1985,22 @@
         <v>0.5076631979275652</v>
       </c>
       <c r="R22">
-        <v>0.9326818626621735</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0.999998362347906</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.9999349399805797</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0.9999999231658036</v>
       </c>
       <c r="W22">
-        <v>0.9325303717156125</v>
+        <v>0.999934863151382</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2020,13 +2020,13 @@
         <v>9.202482558888045e-11</v>
       </c>
       <c r="F23">
-        <v>3.3501180310684e-07</v>
+        <v>3.201223896354249e-08</v>
       </c>
       <c r="G23">
         <v>234618.5454214955</v>
       </c>
       <c r="H23">
-        <v>0.9998709663600124</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>301.0901784370148</v>
@@ -2035,19 +2035,19 @@
         <v>2.009336614450373e-06</v>
       </c>
       <c r="K23">
-        <v>1.161238797511951e-05</v>
+        <v>3.328884552867592e-06</v>
       </c>
       <c r="L23">
-        <v>0.9999895462314793</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>1.000000513199893</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>8.930198424589444e-05</v>
+        <v>6.922634437666236e-05</v>
       </c>
       <c r="O23">
-        <v>3.878203702619719e-06</v>
+        <v>4.935840042304215e-05</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -2056,22 +2056,22 @@
         <v>0.5031020355378298</v>
       </c>
       <c r="R23">
-        <v>0.9332505547871413</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0.9999974950407918</v>
+        <v>1</v>
       </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0.999920118483706</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0.9999998877487973</v>
       </c>
       <c r="W23">
-        <v>0.9331180419161288</v>
+        <v>0.9999200062414701</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2091,13 +2091,13 @@
         <v>7.259634844303e-11</v>
       </c>
       <c r="F24">
-        <v>2.642833978248869e-07</v>
+        <v>2.525374690326697e-08</v>
       </c>
       <c r="G24">
         <v>297407.9438619875</v>
       </c>
       <c r="H24">
-        <v>0.9998899060966903</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>273.6264824626152</v>
@@ -2106,19 +2106,19 @@
         <v>2.450717436788384e-06</v>
       </c>
       <c r="K24">
-        <v>1.41632225724218e-05</v>
+        <v>4.060123804094251e-06</v>
       </c>
       <c r="L24">
-        <v>0.9999872500869113</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1.00000062593192</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.0001089184999453562</v>
+        <v>8.443294569407456e-05</v>
       </c>
       <c r="O24">
-        <v>3.878223844063728e-06</v>
+        <v>4.935880730208953e-05</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -2127,22 +2127,22 @@
         <v>0.4973651110309316</v>
       </c>
       <c r="R24">
-        <v>0.9339662823135051</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0.9999960915344377</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0.9999009727181688</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0.9999998330608033</v>
       </c>
       <c r="W24">
-        <v>0.9338479017153652</v>
+        <v>0.9999008057955037</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2162,13 +2162,13 @@
         <v>5.773005204541321e-11</v>
       </c>
       <c r="F25">
-        <v>2.10163384776059e-07</v>
+        <v>2.00822789897123e-08</v>
       </c>
       <c r="G25">
         <v>373994.6519595314</v>
       </c>
       <c r="H25">
-        <v>0.9999055571581941</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>248.6678652008114</v>
@@ -2177,19 +2177,19 @@
         <v>3.013083606536514e-06</v>
       </c>
       <c r="K25">
-        <v>1.741325748455797e-05</v>
+        <v>4.991800478906619e-06</v>
       </c>
       <c r="L25">
-        <v>0.9999843246305397</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.000000769564528</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0.0001339120298845937</v>
+        <v>0.0001038077751043362</v>
       </c>
       <c r="O25">
-        <v>3.878255281786919e-06</v>
+        <v>4.935944237824682e-05</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -2198,22 +2198,22 @@
         <v>0.4901552726883197</v>
       </c>
       <c r="R25">
-        <v>0.934866471127959</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0.9999937916809503</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0.9998761700170514</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0.9999997477149783</v>
       </c>
       <c r="W25">
-        <v>0.9347577233781769</v>
+        <v>0.9998759177632702</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2233,13 +2233,13 @@
         <v>4.623343819014293e-11</v>
       </c>
       <c r="F26">
-        <v>1.683105335195545e-07</v>
+        <v>1.608300653631299e-08</v>
       </c>
       <c r="G26">
         <v>466993.8375237068</v>
       </c>
       <c r="H26">
-        <v>0.9999185965035305</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>225.9858279323433</v>
@@ -2248,19 +2248,19 @@
         <v>3.730750398964927e-06</v>
       </c>
       <c r="K26">
-        <v>2.156080805951123e-05</v>
+        <v>6.180764977059887e-06</v>
       </c>
       <c r="L26">
-        <v>0.9999805914086501</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1.000000952862099</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0.0001658076655537692</v>
+        <v>0.0001285330740726893</v>
       </c>
       <c r="O26">
-        <v>3.878304800203045e-06</v>
+        <v>4.936044270404137e-05</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -2269,22 +2269,22 @@
         <v>0.4813003997817135</v>
       </c>
       <c r="R26">
-        <v>0.9359731406234266</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>0.9999899821166947</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0.9998439674502547</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0.9999996133039414</v>
       </c>
       <c r="W26">
-        <v>0.9358694091712939</v>
+        <v>0.9998435808145333</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2304,13 +2304,13 @@
         <v>3.725485615939734e-11</v>
       </c>
       <c r="F27">
-        <v>1.356244519517324e-07</v>
+        <v>1.295966985316554e-08</v>
       </c>
       <c r="G27">
         <v>579541.3792487237</v>
       </c>
       <c r="H27">
-        <v>0.9999295438182415</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>205.3727142629607</v>
@@ -2319,19 +2319,19 @@
         <v>4.647866687827727e-06</v>
       </c>
       <c r="K27">
-        <v>2.686102012352608e-05</v>
+        <v>7.700159102077478e-06</v>
       </c>
       <c r="L27">
-        <v>0.9999758208491156</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>1.000001187100592</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0.0002065675381359357</v>
+        <v>0.0001601298745239812</v>
       </c>
       <c r="O27">
-        <v>3.878383420335661e-06</v>
+        <v>4.936203091612038e-05</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2340,22 +2340,22 @@
         <v>0.4707956549538924</v>
       </c>
       <c r="R27">
-        <v>0.9372875959347504</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0.9999836123127879</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0.9998020770836499</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0.9999993999277421</v>
       </c>
       <c r="W27">
-        <v>0.937183538485683</v>
+        <v>0.9998014771301601</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2375,13 +2375,13 @@
         <v>3.018075381064759e-11</v>
       </c>
       <c r="F28">
-        <v>1.098715339966958e-07</v>
+        <v>1.049883547079538e-08</v>
       </c>
       <c r="G28">
         <v>715380.764105132</v>
       </c>
       <c r="H28">
-        <v>0.9999387988022069</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>186.6398090076832</v>
@@ -2390,19 +2390,19 @@
         <v>5.821456062697208e-06</v>
       </c>
       <c r="K28">
-        <v>3.364344525152793e-05</v>
+        <v>9.644454305438009e-06</v>
       </c>
       <c r="L28">
-        <v>0.9999697164626775</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.000001486844267</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0.0002587259764543511</v>
+        <v>0.0002005627724452334</v>
       </c>
       <c r="O28">
-        <v>3.878509130900994e-06</v>
+        <v>4.936457040609171e-05</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2411,22 +2411,22 @@
         <v>0.4588085484180427</v>
       </c>
       <c r="R28">
-        <v>0.9387896924883562</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>0.9999728732316936</v>
+        <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0.9997474847388499</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0.9999990587861557</v>
       </c>
       <c r="W28">
-        <v>0.9386783453012086</v>
+        <v>0.9997465437626765</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2446,13 +2446,13 @@
         <v>2.456384759662929e-11</v>
       </c>
       <c r="F29">
-        <v>8.942346613458561e-08</v>
+        <v>8.544908986193736e-09</v>
       </c>
       <c r="G29">
         <v>878963.714352823</v>
       </c>
       <c r="H29">
-        <v>0.9999466711240756</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>169.6156104837871</v>
@@ -2461,19 +2461,19 @@
         <v>7.325355479399704e-06</v>
       </c>
       <c r="K29">
-        <v>4.233480307416051e-05</v>
+        <v>1.213597688125935e-05</v>
       </c>
       <c r="L29">
-        <v>0.999961894387381</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>1.000001870951646</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0.0003255645544466764</v>
+        <v>0.0002523756236020748</v>
       </c>
       <c r="O29">
-        <v>3.878711421756133e-06</v>
+        <v>4.936865690110153e-05</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -2482,22 +2482,22 @@
         <v>0.4456472636818296</v>
       </c>
       <c r="R29">
-        <v>0.940441641438567</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0.9999546343936978</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0.9996762097403421</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0.9999985098826787</v>
       </c>
       <c r="W29">
-        <v>0.940312994744768</v>
+        <v>0.9996747201055063</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2517,13 +2517,13 @@
         <v>2.007359836020427e-11</v>
       </c>
       <c r="F30">
-        <v>7.3076936994566e-08</v>
+        <v>6.982907312814084e-09</v>
       </c>
       <c r="G30">
         <v>1075578.49543973</v>
       </c>
       <c r="H30">
-        <v>0.9999534034509501</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>154.1442603951844</v>
@@ -2532,19 +2532,19 @@
         <v>9.255253320214223e-06</v>
       </c>
       <c r="K30">
-        <v>5.348809731003635e-05</v>
+        <v>1.533325456221042e-05</v>
       </c>
       <c r="L30">
-        <v>0.9999518572327152</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1.00000236386227</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0.0004113360002747047</v>
+        <v>0.0003188651164920192</v>
       </c>
       <c r="O30">
-        <v>3.879038816584552e-06</v>
+        <v>4.937527063226429e-05</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -2553,22 +2553,22 @@
         <v>0.4317060148692154</v>
       </c>
       <c r="R30">
-        <v>0.9421946860745644</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0.9999234561793212</v>
+        <v>1</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0.9995829895813574</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0.9999976215943361</v>
       </c>
       <c r="W30">
-        <v>0.9420333129590291</v>
+        <v>0.9995806121675135</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2588,13 +2588,13 @@
         <v>1.646243255880906e-11</v>
       </c>
       <c r="F31">
-        <v>5.993066740153404e-08</v>
+        <v>5.726708218368808e-09</v>
       </c>
       <c r="G31">
         <v>1311515.211691891</v>
       </c>
       <c r="H31">
-        <v>0.9999591883663671</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>140.0841169336214</v>
@@ -2603,19 +2603,19 @@
         <v>1.173512872265724e-05</v>
       </c>
       <c r="K31">
-        <v>6.781983003019137e-05</v>
+        <v>1.944168460865486e-05</v>
       </c>
       <c r="L31">
-        <v>0.9999389606634849</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1.000002997241357</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0.0005215503827371097</v>
+        <v>0.0004043026222768292</v>
       </c>
       <c r="O31">
-        <v>3.879571399494274e-06</v>
+        <v>4.938602938555249e-05</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2624,22 +2624,22 @@
         <v>0.4174062644680824</v>
       </c>
       <c r="R31">
-        <v>0.9439963445092063</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>0.9998698552405446</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0.9994608666687393</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0.9999961766979372</v>
       </c>
       <c r="W31">
-        <v>0.9437773562528372</v>
+        <v>0.9994570454279461</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2659,13 +2659,13 @@
         <v>1.35427013590279e-11</v>
       </c>
       <c r="F32">
-        <v>4.930153110524993e-08</v>
+        <v>4.71103519450166e-09</v>
       </c>
       <c r="G32">
         <v>1594270.607461711</v>
       </c>
       <c r="H32">
-        <v>0.9999641804452083</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>127.3064580332929</v>
@@ -2674,19 +2674,19 @@
         <v>1.492553543147547e-05</v>
       </c>
       <c r="K32">
-        <v>8.625787581843055e-05</v>
+        <v>2.472725773461676e-05</v>
       </c>
       <c r="L32">
-        <v>0.9999223704335083</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>1.000003812095558</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0.0006633432747791507</v>
+        <v>0.0005142195928520549</v>
       </c>
       <c r="O32">
-        <v>3.880441669540723e-06</v>
+        <v>4.940360978581118e-05</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2695,22 +2695,22 @@
         <v>0.4031481993684019</v>
       </c>
       <c r="R32">
-        <v>0.9457964424801469</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>0.9997772562244207</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0.999300644488249</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>0.9999938158116101</v>
       </c>
       <c r="W32">
-        <v>0.9454784989640135</v>
+        <v>0.9992944646248053</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2730,13 +2730,13 @@
         <v>1.117074318820214e-11</v>
       </c>
       <c r="F33">
-        <v>4.066653529170332e-08</v>
+        <v>3.885913372318317e-09</v>
       </c>
       <c r="G33">
         <v>1932792.685193297</v>
       </c>
       <c r="H33">
-        <v>0.9999685048835305</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>115.6943029070325</v>
@@ -2745,19 +2745,19 @@
         <v>1.903432388943679e-05</v>
       </c>
       <c r="K33">
-        <v>0.0001100034470375122</v>
+        <v>3.153432148408685e-05</v>
       </c>
       <c r="L33">
-        <v>0.9999010068052528</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>1.00000486151146</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0.0008459522809077436</v>
+        <v>0.0006557769619439875</v>
       </c>
       <c r="O33">
-        <v>3.881869302896915e-06</v>
+        <v>4.943244953035587e-05</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2766,22 +2766,22 @@
         <v>0.3892782967905017</v>
       </c>
       <c r="R33">
-        <v>0.9475512031244496</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>0.999616633251174</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0.9990901688253008</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0.9999899431213979</v>
       </c>
       <c r="W33">
-        <v>0.9470643494983542</v>
+        <v>0.9990801210967604</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2801,13 +2801,13 @@
         <v>9.23561378375825e-12</v>
       </c>
       <c r="F34">
-        <v>3.362179288790846e-08</v>
+        <v>3.212749098177919e-09</v>
       </c>
       <c r="G34">
         <v>2337768.905007635</v>
       </c>
       <c r="H34">
-        <v>0.9999722638343919</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>105.1413410751223</v>
@@ -2816,19 +2816,19 @@
         <v>2.43305496327202e-05</v>
       </c>
       <c r="K34">
-        <v>0.0001406114734341475</v>
+        <v>4.030862238445561e-05</v>
       </c>
       <c r="L34">
-        <v>0.9998734725020484</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1.000006214207899</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0.001081335175186395</v>
+        <v>0.0008382443218499189</v>
       </c>
       <c r="O34">
-        <v>3.884219160761535e-06</v>
+        <v>4.94799192117262e-05</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -2837,22 +2837,22 @@
         <v>0.3760722646904778</v>
       </c>
       <c r="R34">
-        <v>0.9492254623426242</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>0.999337093185786</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>1</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0.9988133761320671</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0.9999835690735913</v>
       </c>
       <c r="W34">
-        <v>0.9484498837171444</v>
+        <v>0.9987969647029878</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2872,13 +2872,13 @@
         <v>7.650951931250183e-12</v>
       </c>
       <c r="F35">
-        <v>2.785291018559231e-08</v>
+        <v>2.661500306623265e-09</v>
       </c>
       <c r="G35">
         <v>2821966.588777401</v>
       </c>
       <c r="H35">
-        <v>0.9999755412074903</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>95.55095908186888</v>
@@ -2887,19 +2887,19 @@
         <v>3.116250773239341e-05</v>
       </c>
       <c r="K35">
-        <v>0.0001800948270507671</v>
+        <v>5.162718375455325e-05</v>
       </c>
       <c r="L35">
-        <v>0.9998379593631059</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1.000007959142092</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0.001384971415226004</v>
+        <v>0.001073621252113181</v>
       </c>
       <c r="O35">
-        <v>3.888098170490622e-06</v>
+        <v>4.955827942178159e-05</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2908,22 +2908,22 @@
         <v>0.3637300507579774</v>
       </c>
       <c r="R35">
-        <v>0.9507933971953877</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>0.9988493468967717</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0.9984490337902608</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0.99997304766642</v>
       </c>
       <c r="W35">
-        <v>0.9495222491968787</v>
+        <v>0.9984221232588395</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2943,13 +2943,13 @@
         <v>6.349024996030439e-12</v>
       </c>
       <c r="F36">
-        <v>2.311330989523294e-08</v>
+        <v>2.208605167766703e-09</v>
       </c>
       <c r="G36">
         <v>3400637.221593707</v>
       </c>
       <c r="H36">
-        <v>0.9999784063781388</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>86.83535598943621</v>
@@ -2958,19 +2958,19 @@
         <v>3.99810993813207e-05</v>
       </c>
       <c r="K36">
-        <v>0.0002310593627512745</v>
+        <v>6.623701732203203e-05</v>
       </c>
       <c r="L36">
-        <v>0.9997921275178391</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>1.000010211477641</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0.001776900635467131</v>
+        <v>0.001377442353075296</v>
       </c>
       <c r="O36">
-        <v>3.894517240845137e-06</v>
+        <v>4.968795161558111e-05</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2979,22 +2979,22 @@
         <v>0.3523793851555299</v>
       </c>
       <c r="R36">
-        <v>0.9522381858609538</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>0.9979967656088544</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0.997969073314703</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0.9999556374348836</v>
       </c>
       <c r="W36">
-        <v>0.9501125651771407</v>
+        <v>0.9979248008467039</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3014,13 +3014,13 @@
         <v>5.276329581451239e-12</v>
       </c>
       <c r="F37">
-        <v>1.920821556092713e-08</v>
+        <v>1.835451709155259e-09</v>
       </c>
       <c r="G37">
         <v>4091998.118963501</v>
       </c>
       <c r="H37">
-        <v>0.9999809170783001</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>78.91473955119022</v>
@@ -3029,19 +3029,19 @@
         <v>5.13700963002508e-05</v>
       </c>
       <c r="K37">
-        <v>0.0002968788227257463</v>
+        <v>8.510526251471395e-05</v>
       </c>
       <c r="L37">
-        <v>0.9997329490746093</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1.000013120314296</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0.002283067703800298</v>
+        <v>0.001769819925426588</v>
       </c>
       <c r="O37">
-        <v>3.905162021910023e-06</v>
+        <v>4.990298775585776e-05</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -3050,22 +3050,22 @@
         <v>0.3420847129103564</v>
       </c>
       <c r="R37">
-        <v>0.9535509755345859</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>0.9965049040389818</v>
+        <v>1</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0.9973363854672146</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0.9999267674302521</v>
       </c>
       <c r="W37">
-        <v>0.9499463386179595</v>
+        <v>0.9972633479608037</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3085,13 +3085,13 @@
         <v>4.390316883649627e-12</v>
       </c>
       <c r="F38">
-        <v>1.598273037726447e-08</v>
+        <v>1.52723868049416e-09</v>
       </c>
       <c r="G38">
         <v>4917806.913377466</v>
       </c>
       <c r="H38">
-        <v>0.999983121658818</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>71.71659570543805</v>
@@ -3100,19 +3100,19 @@
         <v>6.608533583571003e-05</v>
       </c>
       <c r="K38">
-        <v>0.0003819213533817219</v>
+        <v>0.0001094841213027603</v>
       </c>
       <c r="L38">
-        <v>0.9996565059643918</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>1.000016878698679</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.00293706468953163</v>
+        <v>0.002276794332970256</v>
       </c>
       <c r="O38">
-        <v>3.922845898073703e-06</v>
+        <v>5.026022126326281e-05</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -3121,22 +3121,22 @@
         <v>0.332858854208936</v>
       </c>
       <c r="R38">
-        <v>0.954729482666548</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>0.993894070313069</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>1</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0.996501903709603</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0.9998788094842236</v>
       </c>
       <c r="W38">
-        <v>0.9485580197386048</v>
+        <v>0.9963811371299203</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3156,13 +3156,13 @@
         <v>3.656937444341772e-12</v>
       </c>
       <c r="F39">
-        <v>1.331289898392255e-08</v>
+        <v>1.27212145846371e-09</v>
       </c>
       <c r="G39">
         <v>5904047.047820409</v>
       </c>
       <c r="H39">
-        <v>0.9999850608652681</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>65.17502470170267</v>
@@ -3171,19 +3171,19 @@
         <v>8.51054816890881e-05</v>
       </c>
       <c r="K39">
-        <v>0.0004918428625028814</v>
+        <v>0.0001409949539174927</v>
       </c>
       <c r="L39">
-        <v>0.9995577285646581</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>1.00002173658896</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0.003782386848665029</v>
+        <v>0.002932082828422503</v>
       </c>
       <c r="O39">
-        <v>3.952268175100825e-06</v>
+        <v>5.085458321880672e-05</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -3192,22 +3192,22 @@
         <v>0.3246753195311401</v>
       </c>
       <c r="R39">
-        <v>0.9557764837815851</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>0.9893296239165663</v>
+        <v>1</v>
       </c>
       <c r="T39">
         <v>1</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0.9954007462831136</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0.9997990241715808</v>
       </c>
       <c r="W39">
-        <v>0.9451456672439984</v>
+        <v>0.9952006947935202</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3227,13 +3227,13 @@
         <v>3.048786413709048e-12</v>
       </c>
       <c r="F40">
-        <v>1.109895538740059e-08</v>
+        <v>1.06056684812939e-09</v>
       </c>
       <c r="G40">
         <v>7081745.912159</v>
       </c>
       <c r="H40">
-        <v>0.9999867692372344</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>59.23013778169977</v>
@@ -3242,19 +3242,19 @@
         <v>0.000109697763269508</v>
       </c>
       <c r="K40">
-        <v>0.0006339669410925387</v>
+        <v>0.0001817371897798611</v>
       </c>
       <c r="L40">
-        <v>0.9994300578613199</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>1.000028017645193</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0.004875354311892179</v>
+        <v>0.003779344427823395</v>
       </c>
       <c r="O40">
-        <v>4.001283516478832e-06</v>
+        <v>5.184474635697005e-05</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -3263,22 +3263,22 @@
         <v>0.3174798606119735</v>
       </c>
       <c r="R40">
-        <v>0.9566983784012821</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>0.9813706907726883</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <v>1</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0.9939471130173081</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0.9996661241058725</v>
       </c>
       <c r="W40">
-        <v>0.9383282286582885</v>
+        <v>0.993615258036234</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3298,13 +3298,13 @@
         <v>2.543691600091465e-12</v>
       </c>
       <c r="F41">
-        <v>9.260182826114848e-09</v>
+        <v>8.848619144954188e-10</v>
       </c>
       <c r="G41">
         <v>8487951.417362699</v>
       </c>
       <c r="H41">
-        <v>0.9999882762158221</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>53.82750889156914</v>
@@ -3313,19 +3313,19 @@
         <v>0.0001415031139246926</v>
       </c>
       <c r="K41">
-        <v>0.0008177768955006767</v>
+        <v>0.000234429376710194</v>
       </c>
       <c r="L41">
-        <v>0.9992650089442517</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>1.000036140974269</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0.00628889592692982</v>
+        <v>0.004875113121651025</v>
       </c>
       <c r="O41">
-        <v>4.083027982577773e-06</v>
+        <v>5.3496073366116e-05</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3334,22 +3334,22 @@
         <v>0.3112004450217832</v>
       </c>
       <c r="R41">
-        <v>0.9575039321046958</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>0.9675631451262104</v>
+        <v>1</v>
       </c>
       <c r="T41">
         <v>1</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>0.9920275348569366</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0.9994445248097248</v>
       </c>
       <c r="W41">
-        <v>0.9257537333858058</v>
+        <v>0.9914764881732537</v>
       </c>
     </row>
   </sheetData>
